--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Code\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F854E1AE-C6B3-497D-BECF-76ABD32C0818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C70B95-CB5E-4087-A39D-070AB073F39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14903" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14919" uniqueCount="1532">
   <si>
     <t>全省房屋建筑安全隐患排查整治“问题、措施、责任”清单（新表）</t>
   </si>
@@ -2798,18 +2798,12 @@
     <t>中组６号</t>
   </si>
   <si>
-    <t>班美玲</t>
-  </si>
-  <si>
     <t>13837035269</t>
   </si>
   <si>
     <t>中组８号</t>
   </si>
   <si>
-    <t>李秀荣</t>
-  </si>
-  <si>
     <t>18238038002</t>
   </si>
   <si>
@@ -3308,15 +3302,9 @@
     <t>香卜庄组４２号</t>
   </si>
   <si>
-    <t>程耀东</t>
-  </si>
-  <si>
     <t>13849676379</t>
   </si>
   <si>
-    <t>西北头组８号</t>
-  </si>
-  <si>
     <t>刘大朵</t>
   </si>
   <si>
@@ -3704,12 +3692,6 @@
     <t>东组２６号</t>
   </si>
   <si>
-    <t>程磊</t>
-  </si>
-  <si>
-    <t>郭连玲</t>
-  </si>
-  <si>
     <t>东组２９号</t>
   </si>
   <si>
@@ -3944,15 +3926,9 @@
     <t>中组４５号</t>
   </si>
   <si>
-    <t>宋刚良</t>
-  </si>
-  <si>
     <t>碑记楼一组７号</t>
   </si>
   <si>
-    <t>朱爱平</t>
-  </si>
-  <si>
     <t>碑记楼一组８号</t>
   </si>
   <si>
@@ -3962,9 +3938,6 @@
     <t>13781684694</t>
   </si>
   <si>
-    <t>碑记楼一组９号</t>
-  </si>
-  <si>
     <t>彭月玲</t>
   </si>
   <si>
@@ -4301,13 +4274,7 @@
     <t>程楼组２５号</t>
   </si>
   <si>
-    <t>程丕志</t>
-  </si>
-  <si>
     <t>程楼组２６号</t>
-  </si>
-  <si>
-    <t>徐秀芝</t>
   </si>
   <si>
     <t>15036655538</t>
@@ -5120,6 +5087,126 @@
   </si>
   <si>
     <t>程楼组66号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>程领</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>程耀东</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北头组８号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北头组9号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北头组10号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北头组11号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北头组12号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北头组13号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>程磊</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭连玲</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱爱平</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋刚良</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组９号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组10号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组11号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组12号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组13号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组14号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑记楼一组15号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>程丕贞</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>程丕志</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐秀芝</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秀荣</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>班美玲</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香卜庄组２０号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香卜庄组２1号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香卜庄组２2号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香卜庄组２3号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香卜庄组２4号</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香卜庄组２5号</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -5640,6 +5727,48 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5670,50 +5799,8 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6022,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="F582" sqref="F582"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6078,97 +6165,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="30.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
     </row>
     <row r="2" spans="1:85" ht="28.5" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
       <c r="AF2" s="43"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
@@ -6194,214 +6281,214 @@
       <c r="BB2" s="43"/>
     </row>
     <row r="3" spans="1:85" ht="94.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
-      <c r="BB3" s="53"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
     </row>
     <row r="4" spans="1:85" ht="25.5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="55" t="s">
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="56" t="s">
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="55" t="s">
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="55" t="s">
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="55" t="s">
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="57"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="71"/>
       <c r="BB4" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="43.5" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="72" t="s">
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="69" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="69" t="s">
+      <c r="V5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="69" t="s">
+      <c r="W5" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="69" t="s">
+      <c r="Y5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="69" t="s">
+      <c r="Z5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="69" t="s">
+      <c r="AA5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="69" t="s">
+      <c r="AB5" s="52" t="s">
         <v>36</v>
       </c>
       <c r="AC5" s="61" t="s">
@@ -6419,47 +6506,47 @@
       </c>
       <c r="AJ5" s="62"/>
       <c r="AK5" s="63"/>
-      <c r="AL5" s="60" t="s">
+      <c r="AL5" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="64" t="s">
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="69" t="s">
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AS5" s="60" t="s">
+      <c r="AS5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="AT5" s="60"/>
-      <c r="AU5" s="60" t="s">
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="60"/>
-      <c r="AX5" s="60" t="s">
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="69" t="s">
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="52" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:85" ht="51">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="26">
         <v>1</v>
       </c>
@@ -6469,27 +6556,27 @@
       <c r="K6" s="26">
         <v>3</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="24" t="s">
         <v>47</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
       <c r="AC6" s="18">
         <v>1</v>
       </c>
@@ -6535,7 +6622,7 @@
       <c r="AQ6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AR6" s="71"/>
+      <c r="AR6" s="53"/>
       <c r="AS6" s="18" t="s">
         <v>58</v>
       </c>
@@ -6563,7 +6650,7 @@
       <c r="BA6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="BB6" s="71"/>
+      <c r="BB6" s="53"/>
     </row>
     <row r="7" spans="1:85" ht="83.25" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -6964,36 +7051,36 @@
       <c r="BB9" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="BF9" s="65" t="s">
+      <c r="BF9" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="65"/>
-      <c r="BJ9" s="65"/>
-      <c r="BK9" s="65"/>
-      <c r="BL9" s="65"/>
-      <c r="BM9" s="65"/>
-      <c r="BN9" s="65"/>
-      <c r="BO9" s="65"/>
-      <c r="BP9" s="65"/>
-      <c r="BQ9" s="65"/>
-      <c r="BR9" s="65"/>
-      <c r="BS9" s="65"/>
-      <c r="BT9" s="65"/>
-      <c r="BU9" s="65"/>
-      <c r="BV9" s="65"/>
-      <c r="BW9" s="65"/>
-      <c r="BX9" s="65"/>
-      <c r="BY9" s="65"/>
-      <c r="BZ9" s="65"/>
-      <c r="CA9" s="65"/>
-      <c r="CB9" s="65"/>
-      <c r="CC9" s="65"/>
-      <c r="CD9" s="65"/>
-      <c r="CE9" s="65"/>
-      <c r="CF9" s="65"/>
-      <c r="CG9" s="65"/>
+      <c r="BG9" s="54"/>
+      <c r="BH9" s="54"/>
+      <c r="BI9" s="54"/>
+      <c r="BJ9" s="54"/>
+      <c r="BK9" s="54"/>
+      <c r="BL9" s="54"/>
+      <c r="BM9" s="54"/>
+      <c r="BN9" s="54"/>
+      <c r="BO9" s="54"/>
+      <c r="BP9" s="54"/>
+      <c r="BQ9" s="54"/>
+      <c r="BR9" s="54"/>
+      <c r="BS9" s="54"/>
+      <c r="BT9" s="54"/>
+      <c r="BU9" s="54"/>
+      <c r="BV9" s="54"/>
+      <c r="BW9" s="54"/>
+      <c r="BX9" s="54"/>
+      <c r="BY9" s="54"/>
+      <c r="BZ9" s="54"/>
+      <c r="CA9" s="54"/>
+      <c r="CB9" s="54"/>
+      <c r="CC9" s="54"/>
+      <c r="CD9" s="54"/>
+      <c r="CE9" s="54"/>
+      <c r="CF9" s="54"/>
+      <c r="CG9" s="54"/>
     </row>
     <row r="10" spans="1:85" ht="21" customHeight="1">
       <c r="A10" s="29">
@@ -7116,72 +7203,72 @@
       <c r="BB10" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="BF10" s="66" t="s">
+      <c r="BF10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="BG10" s="66" t="s">
+      <c r="BG10" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="66"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="BK10" s="66" t="s">
+      <c r="BK10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="BL10" s="66" t="s">
+      <c r="BL10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66" t="s">
+      <c r="BM10" s="51"/>
+      <c r="BN10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BO10" s="66" t="s">
+      <c r="BO10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BP10" s="66" t="s">
+      <c r="BP10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="BQ10" s="66" t="s">
+      <c r="BQ10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="BR10" s="66" t="s">
+      <c r="BR10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BS10" s="66" t="s">
+      <c r="BS10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="BT10" s="66" t="s">
+      <c r="BT10" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BU10" s="66" t="s">
+      <c r="BU10" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BV10" s="66" t="s">
+      <c r="BV10" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BW10" s="66" t="s">
+      <c r="BW10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="BX10" s="66"/>
-      <c r="BY10" s="66"/>
-      <c r="BZ10" s="66" t="s">
+      <c r="BX10" s="51"/>
+      <c r="BY10" s="51"/>
+      <c r="BZ10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="CA10" s="66"/>
-      <c r="CB10" s="66"/>
-      <c r="CC10" s="67" t="s">
+      <c r="CA10" s="51"/>
+      <c r="CB10" s="51"/>
+      <c r="CC10" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="CD10" s="68"/>
-      <c r="CE10" s="66" t="s">
+      <c r="CD10" s="56"/>
+      <c r="CE10" s="51" t="s">
         <v>42</v>
       </c>
       <c r="CF10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="CG10" s="66" t="s">
+      <c r="CG10" s="51" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7306,7 +7393,7 @@
       <c r="BB11" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="BF11" s="66"/>
+      <c r="BF11" s="51"/>
       <c r="BG11" s="2">
         <v>1</v>
       </c>
@@ -7316,23 +7403,23 @@
       <c r="BI11" s="2">
         <v>3</v>
       </c>
-      <c r="BJ11" s="66"/>
-      <c r="BK11" s="66"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
       <c r="BL11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="BM11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BN11" s="66"/>
-      <c r="BO11" s="66"/>
-      <c r="BP11" s="66"/>
-      <c r="BQ11" s="66"/>
-      <c r="BR11" s="66"/>
-      <c r="BS11" s="66"/>
-      <c r="BT11" s="66"/>
-      <c r="BU11" s="66"/>
-      <c r="BV11" s="66"/>
+      <c r="BN11" s="51"/>
+      <c r="BO11" s="51"/>
+      <c r="BP11" s="51"/>
+      <c r="BQ11" s="51"/>
+      <c r="BR11" s="51"/>
+      <c r="BS11" s="51"/>
+      <c r="BT11" s="51"/>
+      <c r="BU11" s="51"/>
+      <c r="BV11" s="51"/>
       <c r="BW11" s="2">
         <v>1</v>
       </c>
@@ -7357,11 +7444,11 @@
       <c r="CD11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="CE11" s="66"/>
+      <c r="CE11" s="51"/>
       <c r="CF11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="CG11" s="66"/>
+      <c r="CG11" s="51"/>
     </row>
     <row r="12" spans="1:85" ht="39" customHeight="1">
       <c r="A12" s="29">
@@ -36262,10 +36349,10 @@
         <v>113</v>
       </c>
       <c r="L262" s="38" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M262" s="39" t="s">
         <v>770</v>
-      </c>
-      <c r="M262" s="39" t="s">
-        <v>771</v>
       </c>
       <c r="N262" s="40" t="s">
         <v>115</v>
@@ -36354,7 +36441,7 @@
         <v>110</v>
       </c>
       <c r="F263" s="32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G263" s="30" t="s">
         <v>112</v>
@@ -36372,10 +36459,10 @@
         <v>113</v>
       </c>
       <c r="L263" s="38" t="s">
-        <v>773</v>
+        <v>1524</v>
       </c>
       <c r="M263" s="39" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N263" s="40" t="s">
         <v>115</v>
@@ -36464,7 +36551,7 @@
         <v>110</v>
       </c>
       <c r="F264" s="32" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G264" s="30" t="s">
         <v>112</v>
@@ -36482,7 +36569,7 @@
         <v>113</v>
       </c>
       <c r="L264" s="38" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M264" s="39" t="s">
         <v>190</v>
@@ -36574,7 +36661,7 @@
         <v>110</v>
       </c>
       <c r="F265" s="32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G265" s="30" t="s">
         <v>112</v>
@@ -36592,10 +36679,10 @@
         <v>113</v>
       </c>
       <c r="L265" s="38" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="M265" s="39" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N265" s="40" t="s">
         <v>137</v>
@@ -36684,7 +36771,7 @@
         <v>110</v>
       </c>
       <c r="F266" s="32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G266" s="30" t="s">
         <v>112</v>
@@ -36702,7 +36789,7 @@
         <v>113</v>
       </c>
       <c r="L266" s="38" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M266" s="39" t="s">
         <v>190</v>
@@ -36812,7 +36899,7 @@
         <v>113</v>
       </c>
       <c r="L267" s="38" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M267" s="39" t="s">
         <v>455</v>
@@ -36904,7 +36991,7 @@
         <v>110</v>
       </c>
       <c r="F268" s="32" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G268" s="30" t="s">
         <v>112</v>
@@ -36925,7 +37012,7 @@
         <v>760</v>
       </c>
       <c r="M268" s="39" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N268" s="40" t="s">
         <v>115</v>
@@ -37014,7 +37101,7 @@
         <v>110</v>
       </c>
       <c r="F269" s="32" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G269" s="30" t="s">
         <v>112</v>
@@ -37032,7 +37119,7 @@
         <v>113</v>
       </c>
       <c r="L269" s="38" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M269" s="39" t="s">
         <v>190</v>
@@ -37124,7 +37211,7 @@
         <v>110</v>
       </c>
       <c r="F270" s="32" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G270" s="30" t="s">
         <v>112</v>
@@ -37142,7 +37229,7 @@
         <v>113</v>
       </c>
       <c r="L270" s="38" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M270" s="39" t="s">
         <v>190</v>
@@ -37234,7 +37321,7 @@
         <v>110</v>
       </c>
       <c r="F271" s="32" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G271" s="30" t="s">
         <v>112</v>
@@ -37255,7 +37342,7 @@
         <v>417</v>
       </c>
       <c r="M271" s="39" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N271" s="40" t="s">
         <v>137</v>
@@ -37344,7 +37431,7 @@
         <v>110</v>
       </c>
       <c r="F272" s="32" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G272" s="30" t="s">
         <v>112</v>
@@ -37362,10 +37449,10 @@
         <v>113</v>
       </c>
       <c r="L272" s="38" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M272" s="39" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N272" s="40" t="s">
         <v>115</v>
@@ -37454,7 +37541,7 @@
         <v>110</v>
       </c>
       <c r="F273" s="32" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G273" s="30" t="s">
         <v>112</v>
@@ -37472,7 +37559,7 @@
         <v>113</v>
       </c>
       <c r="L273" s="38" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M273" s="39" t="s">
         <v>190</v>
@@ -37564,7 +37651,7 @@
         <v>110</v>
       </c>
       <c r="F274" s="32" t="s">
-        <v>447</v>
+        <v>1526</v>
       </c>
       <c r="G274" s="30" t="s">
         <v>112</v>
@@ -37582,7 +37669,7 @@
         <v>113</v>
       </c>
       <c r="L274" s="38" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M274" s="39" t="s">
         <v>449</v>
@@ -37673,8 +37760,8 @@
       <c r="E275" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F275" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F275" s="32" t="s">
+        <v>1527</v>
       </c>
       <c r="G275" s="30" t="s">
         <v>112</v>
@@ -37692,7 +37779,7 @@
         <v>113</v>
       </c>
       <c r="L275" s="38" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M275" s="39" t="e">
         <v>#N/A</v>
@@ -37784,7 +37871,7 @@
         <v>110</v>
       </c>
       <c r="F276" s="32" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G276" s="30" t="s">
         <v>112</v>
@@ -37802,10 +37889,10 @@
         <v>113</v>
       </c>
       <c r="L276" s="38" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M276" s="39" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N276" s="40" t="s">
         <v>137</v>
@@ -37893,8 +37980,8 @@
       <c r="E277" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F277" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F277" s="50" t="s">
+        <v>1528</v>
       </c>
       <c r="G277" s="30" t="s">
         <v>112</v>
@@ -37912,7 +37999,7 @@
         <v>113</v>
       </c>
       <c r="L277" s="38" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M277" s="39" t="e">
         <v>#N/A</v>
@@ -38004,7 +38091,7 @@
         <v>110</v>
       </c>
       <c r="F278" s="32" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G278" s="30" t="s">
         <v>112</v>
@@ -38022,7 +38109,7 @@
         <v>113</v>
       </c>
       <c r="L278" s="38" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M278" s="39" t="s">
         <v>190</v>
@@ -38114,7 +38201,7 @@
         <v>110</v>
       </c>
       <c r="F279" s="32" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G279" s="30" t="s">
         <v>112</v>
@@ -38132,10 +38219,10 @@
         <v>113</v>
       </c>
       <c r="L279" s="38" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M279" s="39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="N279" s="40" t="s">
         <v>115</v>
@@ -38224,7 +38311,7 @@
         <v>110</v>
       </c>
       <c r="F280" s="32" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G280" s="30" t="s">
         <v>112</v>
@@ -38242,7 +38329,7 @@
         <v>113</v>
       </c>
       <c r="L280" s="38" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M280" s="39" t="s">
         <v>190</v>
@@ -38352,7 +38439,7 @@
         <v>113</v>
       </c>
       <c r="L281" s="38" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M281" s="39" t="s">
         <v>190</v>
@@ -38444,7 +38531,7 @@
         <v>110</v>
       </c>
       <c r="F282" s="32" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G282" s="30" t="s">
         <v>112</v>
@@ -38462,10 +38549,10 @@
         <v>113</v>
       </c>
       <c r="L282" s="38" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="M282" s="39" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="N282" s="40" t="s">
         <v>115</v>
@@ -38554,7 +38641,7 @@
         <v>110</v>
       </c>
       <c r="F283" s="32" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G283" s="30" t="s">
         <v>112</v>
@@ -38572,7 +38659,7 @@
         <v>113</v>
       </c>
       <c r="L283" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M283" s="39" t="s">
         <v>190</v>
@@ -38664,7 +38751,7 @@
         <v>110</v>
       </c>
       <c r="F284" s="32" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G284" s="30" t="s">
         <v>112</v>
@@ -38682,10 +38769,10 @@
         <v>113</v>
       </c>
       <c r="L284" s="38" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M284" s="39" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N284" s="40" t="s">
         <v>115</v>
@@ -38774,7 +38861,7 @@
         <v>110</v>
       </c>
       <c r="F285" s="32" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G285" s="30" t="s">
         <v>112</v>
@@ -38792,10 +38879,10 @@
         <v>113</v>
       </c>
       <c r="L285" s="38" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M285" s="39" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N285" s="40" t="s">
         <v>115</v>
@@ -38884,7 +38971,7 @@
         <v>110</v>
       </c>
       <c r="F286" s="32" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G286" s="30" t="s">
         <v>112</v>
@@ -38902,10 +38989,10 @@
         <v>113</v>
       </c>
       <c r="L286" s="38" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M286" s="39" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="N286" s="40" t="s">
         <v>115</v>
@@ -38994,7 +39081,7 @@
         <v>110</v>
       </c>
       <c r="F287" s="32" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G287" s="30" t="s">
         <v>112</v>
@@ -39012,10 +39099,10 @@
         <v>113</v>
       </c>
       <c r="L287" s="38" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M287" s="39" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N287" s="40" t="s">
         <v>115</v>
@@ -39104,7 +39191,7 @@
         <v>110</v>
       </c>
       <c r="F288" s="32" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G288" s="30" t="s">
         <v>112</v>
@@ -39122,10 +39209,10 @@
         <v>113</v>
       </c>
       <c r="L288" s="38" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M288" s="39" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="N288" s="40" t="s">
         <v>115</v>
@@ -39214,7 +39301,7 @@
         <v>110</v>
       </c>
       <c r="F289" s="32" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G289" s="30" t="s">
         <v>112</v>
@@ -39232,7 +39319,7 @@
         <v>113</v>
       </c>
       <c r="L289" s="38" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M289" s="39" t="s">
         <v>190</v>
@@ -39324,7 +39411,7 @@
         <v>110</v>
       </c>
       <c r="F290" s="32" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G290" s="30" t="s">
         <v>112</v>
@@ -39342,10 +39429,10 @@
         <v>113</v>
       </c>
       <c r="L290" s="38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="M290" s="39" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N290" s="40" t="s">
         <v>115</v>
@@ -39434,7 +39521,7 @@
         <v>110</v>
       </c>
       <c r="F291" s="32" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G291" s="30" t="s">
         <v>112</v>
@@ -39452,10 +39539,10 @@
         <v>113</v>
       </c>
       <c r="L291" s="38" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M291" s="39" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N291" s="40" t="s">
         <v>115</v>
@@ -39544,7 +39631,7 @@
         <v>110</v>
       </c>
       <c r="F292" s="32" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G292" s="30" t="s">
         <v>112</v>
@@ -39562,10 +39649,10 @@
         <v>113</v>
       </c>
       <c r="L292" s="38" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="M292" s="39" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N292" s="40" t="s">
         <v>115</v>
@@ -39654,7 +39741,7 @@
         <v>110</v>
       </c>
       <c r="F293" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G293" s="30" t="s">
         <v>112</v>
@@ -39764,7 +39851,7 @@
         <v>110</v>
       </c>
       <c r="F294" s="32" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G294" s="30" t="s">
         <v>112</v>
@@ -39782,7 +39869,7 @@
         <v>113</v>
       </c>
       <c r="L294" s="38" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="M294" s="39" t="s">
         <v>190</v>
@@ -39874,7 +39961,7 @@
         <v>110</v>
       </c>
       <c r="F295" s="32" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G295" s="30" t="s">
         <v>112</v>
@@ -39892,10 +39979,10 @@
         <v>113</v>
       </c>
       <c r="L295" s="38" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="M295" s="39" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N295" s="40" t="s">
         <v>115</v>
@@ -39984,7 +40071,7 @@
         <v>110</v>
       </c>
       <c r="F296" s="32" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G296" s="30" t="s">
         <v>112</v>
@@ -40002,7 +40089,7 @@
         <v>113</v>
       </c>
       <c r="L296" s="38" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M296" s="39" t="s">
         <v>449</v>
@@ -40094,7 +40181,7 @@
         <v>110</v>
       </c>
       <c r="F297" s="32" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G297" s="30" t="s">
         <v>112</v>
@@ -40112,10 +40199,10 @@
         <v>113</v>
       </c>
       <c r="L297" s="38" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M297" s="39" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N297" s="40" t="s">
         <v>115</v>
@@ -40204,7 +40291,7 @@
         <v>110</v>
       </c>
       <c r="F298" s="32" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G298" s="30" t="s">
         <v>112</v>
@@ -40222,7 +40309,7 @@
         <v>113</v>
       </c>
       <c r="L298" s="38" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M298" s="39" t="s">
         <v>190</v>
@@ -40314,7 +40401,7 @@
         <v>110</v>
       </c>
       <c r="F299" s="32" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G299" s="30" t="s">
         <v>112</v>
@@ -40332,7 +40419,7 @@
         <v>113</v>
       </c>
       <c r="L299" s="38" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="M299" s="39" t="s">
         <v>190</v>
@@ -40424,7 +40511,7 @@
         <v>110</v>
       </c>
       <c r="F300" s="32" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G300" s="30" t="s">
         <v>112</v>
@@ -40533,8 +40620,8 @@
       <c r="E301" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F301" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F301" s="50" t="s">
+        <v>1529</v>
       </c>
       <c r="G301" s="30" t="s">
         <v>112</v>
@@ -40552,7 +40639,7 @@
         <v>113</v>
       </c>
       <c r="L301" s="38" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M301" s="39" t="e">
         <v>#N/A</v>
@@ -40644,7 +40731,7 @@
         <v>110</v>
       </c>
       <c r="F302" s="32" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G302" s="30" t="s">
         <v>112</v>
@@ -40662,7 +40749,7 @@
         <v>113</v>
       </c>
       <c r="L302" s="38" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="M302" s="39" t="s">
         <v>190</v>
@@ -40754,7 +40841,7 @@
         <v>110</v>
       </c>
       <c r="F303" s="32" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G303" s="30" t="s">
         <v>112</v>
@@ -40772,7 +40859,7 @@
         <v>113</v>
       </c>
       <c r="L303" s="38" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="M303" s="39" t="s">
         <v>382</v>
@@ -40864,7 +40951,7 @@
         <v>110</v>
       </c>
       <c r="F304" s="32" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G304" s="30" t="s">
         <v>112</v>
@@ -40882,7 +40969,7 @@
         <v>113</v>
       </c>
       <c r="L304" s="38" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="M304" s="39" t="s">
         <v>190</v>
@@ -40973,8 +41060,8 @@
       <c r="E305" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F305" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F305" s="50" t="s">
+        <v>1530</v>
       </c>
       <c r="G305" s="30" t="s">
         <v>112</v>
@@ -40992,7 +41079,7 @@
         <v>113</v>
       </c>
       <c r="L305" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M305" s="39" t="e">
         <v>#N/A</v>
@@ -41084,7 +41171,7 @@
         <v>110</v>
       </c>
       <c r="F306" s="32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G306" s="30" t="s">
         <v>112</v>
@@ -41102,7 +41189,7 @@
         <v>113</v>
       </c>
       <c r="L306" s="38" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M306" s="39" t="s">
         <v>190</v>
@@ -41193,8 +41280,8 @@
       <c r="E307" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F307" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F307" s="50" t="s">
+        <v>1531</v>
       </c>
       <c r="G307" s="30" t="s">
         <v>112</v>
@@ -41212,7 +41299,7 @@
         <v>113</v>
       </c>
       <c r="L307" s="38" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M307" s="39" t="e">
         <v>#N/A</v>
@@ -41304,7 +41391,7 @@
         <v>110</v>
       </c>
       <c r="F308" s="32" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G308" s="30" t="s">
         <v>112</v>
@@ -41322,10 +41409,10 @@
         <v>113</v>
       </c>
       <c r="L308" s="38" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M308" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N308" s="40" t="s">
         <v>137</v>
@@ -41414,7 +41501,7 @@
         <v>110</v>
       </c>
       <c r="F309" s="32" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G309" s="30" t="s">
         <v>112</v>
@@ -41432,10 +41519,10 @@
         <v>113</v>
       </c>
       <c r="L309" s="38" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M309" s="39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N309" s="40" t="s">
         <v>137</v>
@@ -41524,7 +41611,7 @@
         <v>110</v>
       </c>
       <c r="F310" s="32" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G310" s="30" t="s">
         <v>112</v>
@@ -41542,7 +41629,7 @@
         <v>113</v>
       </c>
       <c r="L310" s="38" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="M310" s="39" t="s">
         <v>190</v>
@@ -41634,7 +41721,7 @@
         <v>110</v>
       </c>
       <c r="F311" s="32" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G311" s="30" t="s">
         <v>112</v>
@@ -41652,10 +41739,10 @@
         <v>113</v>
       </c>
       <c r="L311" s="38" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="M311" s="39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="N311" s="40" t="s">
         <v>137</v>
@@ -41744,7 +41831,7 @@
         <v>110</v>
       </c>
       <c r="F312" s="32" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G312" s="30" t="s">
         <v>112</v>
@@ -41762,7 +41849,7 @@
         <v>113</v>
       </c>
       <c r="L312" s="38" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M312" s="39" t="s">
         <v>190</v>
@@ -41872,7 +41959,7 @@
         <v>113</v>
       </c>
       <c r="L313" s="38" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M313" s="39" t="e">
         <v>#N/A</v>
@@ -41964,7 +42051,7 @@
         <v>110</v>
       </c>
       <c r="F314" s="32" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G314" s="30" t="s">
         <v>112</v>
@@ -41982,7 +42069,7 @@
         <v>113</v>
       </c>
       <c r="L314" s="38" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="M314" s="39" t="s">
         <v>190</v>
@@ -42074,7 +42161,7 @@
         <v>110</v>
       </c>
       <c r="F315" s="32" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G315" s="30" t="s">
         <v>112</v>
@@ -42092,7 +42179,7 @@
         <v>113</v>
       </c>
       <c r="L315" s="38" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="M315" s="39" t="s">
         <v>190</v>
@@ -42184,7 +42271,7 @@
         <v>110</v>
       </c>
       <c r="F316" s="32" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G316" s="30" t="s">
         <v>112</v>
@@ -42202,7 +42289,7 @@
         <v>113</v>
       </c>
       <c r="L316" s="38" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M316" s="39" t="s">
         <v>190</v>
@@ -42294,7 +42381,7 @@
         <v>110</v>
       </c>
       <c r="F317" s="32" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G317" s="30" t="s">
         <v>112</v>
@@ -42312,7 +42399,7 @@
         <v>113</v>
       </c>
       <c r="L317" s="38" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="M317" s="39" t="s">
         <v>190</v>
@@ -42404,7 +42491,7 @@
         <v>110</v>
       </c>
       <c r="F318" s="32" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G318" s="30" t="s">
         <v>112</v>
@@ -42422,10 +42509,10 @@
         <v>113</v>
       </c>
       <c r="L318" s="38" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="M318" s="39" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="N318" s="40" t="s">
         <v>137</v>
@@ -42514,7 +42601,7 @@
         <v>110</v>
       </c>
       <c r="F319" s="32" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G319" s="30" t="s">
         <v>112</v>
@@ -42532,10 +42619,10 @@
         <v>113</v>
       </c>
       <c r="L319" s="38" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="M319" s="39" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="N319" s="40" t="s">
         <v>137</v>
@@ -42642,7 +42729,7 @@
         <v>113</v>
       </c>
       <c r="L320" s="38" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M320" s="39" t="s">
         <v>190</v>
@@ -42734,7 +42821,7 @@
         <v>110</v>
       </c>
       <c r="F321" s="32" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G321" s="30" t="s">
         <v>112</v>
@@ -42752,10 +42839,10 @@
         <v>113</v>
       </c>
       <c r="L321" s="38" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="M321" s="39" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="N321" s="40" t="s">
         <v>137</v>
@@ -42844,7 +42931,7 @@
         <v>110</v>
       </c>
       <c r="F322" s="32" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G322" s="30" t="s">
         <v>112</v>
@@ -42862,10 +42949,10 @@
         <v>113</v>
       </c>
       <c r="L322" s="38" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="M322" s="39" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N322" s="40" t="s">
         <v>137</v>
@@ -42972,7 +43059,7 @@
         <v>113</v>
       </c>
       <c r="L323" s="38" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="M323" s="39" t="s">
         <v>190</v>
@@ -43082,7 +43169,7 @@
         <v>113</v>
       </c>
       <c r="L324" s="38" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="M324" s="39" t="s">
         <v>190</v>
@@ -43174,7 +43261,7 @@
         <v>110</v>
       </c>
       <c r="F325" s="32" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G325" s="30" t="s">
         <v>112</v>
@@ -43192,10 +43279,10 @@
         <v>113</v>
       </c>
       <c r="L325" s="38" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="M325" s="39" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="N325" s="40" t="s">
         <v>137</v>
@@ -43284,7 +43371,7 @@
         <v>110</v>
       </c>
       <c r="F326" s="32" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G326" s="30" t="s">
         <v>112</v>
@@ -43302,10 +43389,10 @@
         <v>113</v>
       </c>
       <c r="L326" s="38" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="M326" s="39" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N326" s="40" t="s">
         <v>137</v>
@@ -43394,7 +43481,7 @@
         <v>110</v>
       </c>
       <c r="F327" s="32" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G327" s="30" t="s">
         <v>112</v>
@@ -43412,10 +43499,10 @@
         <v>113</v>
       </c>
       <c r="L327" s="38" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="M327" s="39" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N327" s="40" t="s">
         <v>137</v>
@@ -43504,7 +43591,7 @@
         <v>110</v>
       </c>
       <c r="F328" s="32" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G328" s="30" t="s">
         <v>112</v>
@@ -43525,7 +43612,7 @@
         <v>518</v>
       </c>
       <c r="M328" s="39" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N328" s="40" t="s">
         <v>137</v>
@@ -43614,7 +43701,7 @@
         <v>110</v>
       </c>
       <c r="F329" s="32" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G329" s="30" t="s">
         <v>112</v>
@@ -43632,7 +43719,7 @@
         <v>113</v>
       </c>
       <c r="L329" s="38" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="M329" s="39" t="s">
         <v>449</v>
@@ -43742,10 +43829,10 @@
         <v>113</v>
       </c>
       <c r="L330" s="38" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="M330" s="39" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="N330" s="40" t="s">
         <v>137</v>
@@ -43852,10 +43939,10 @@
         <v>113</v>
       </c>
       <c r="L331" s="38" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="M331" s="39" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N331" s="40" t="s">
         <v>137</v>
@@ -43962,10 +44049,10 @@
         <v>113</v>
       </c>
       <c r="L332" s="38" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M332" s="39" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="N332" s="40" t="s">
         <v>137</v>
@@ -44072,10 +44159,10 @@
         <v>113</v>
       </c>
       <c r="L333" s="38" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="M333" s="39" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N333" s="40" t="s">
         <v>137</v>
@@ -44164,7 +44251,7 @@
         <v>110</v>
       </c>
       <c r="F334" s="32" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G334" s="30" t="s">
         <v>112</v>
@@ -44182,10 +44269,10 @@
         <v>113</v>
       </c>
       <c r="L334" s="38" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="M334" s="39" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N334" s="40" t="s">
         <v>137</v>
@@ -44274,7 +44361,7 @@
         <v>110</v>
       </c>
       <c r="F335" s="32" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G335" s="30" t="s">
         <v>112</v>
@@ -44292,10 +44379,10 @@
         <v>113</v>
       </c>
       <c r="L335" s="38" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="M335" s="39" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N335" s="40" t="s">
         <v>137</v>
@@ -44402,7 +44489,7 @@
         <v>113</v>
       </c>
       <c r="L336" s="38" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="M336" s="39" t="s">
         <v>233</v>
@@ -44512,7 +44599,7 @@
         <v>113</v>
       </c>
       <c r="L337" s="38" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M337" s="39" t="s">
         <v>278</v>
@@ -44622,7 +44709,7 @@
         <v>113</v>
       </c>
       <c r="L338" s="38" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="M338" s="39" t="s">
         <v>626</v>
@@ -44714,7 +44801,7 @@
         <v>110</v>
       </c>
       <c r="F339" s="32" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G339" s="30" t="s">
         <v>112</v>
@@ -44732,10 +44819,10 @@
         <v>113</v>
       </c>
       <c r="L339" s="38" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M339" s="39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N339" s="40" t="s">
         <v>137</v>
@@ -44824,7 +44911,7 @@
         <v>110</v>
       </c>
       <c r="F340" s="32" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G340" s="30" t="s">
         <v>112</v>
@@ -44842,10 +44929,10 @@
         <v>113</v>
       </c>
       <c r="L340" s="38" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="M340" s="39" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N340" s="40" t="s">
         <v>137</v>
@@ -44934,7 +45021,7 @@
         <v>110</v>
       </c>
       <c r="F341" s="32" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G341" s="30" t="s">
         <v>112</v>
@@ -44952,10 +45039,10 @@
         <v>113</v>
       </c>
       <c r="L341" s="38" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M341" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N341" s="40" t="s">
         <v>137</v>
@@ -45062,7 +45149,7 @@
         <v>113</v>
       </c>
       <c r="L342" s="38" t="s">
-        <v>931</v>
+        <v>1502</v>
       </c>
       <c r="M342" s="39" t="s">
         <v>626</v>
@@ -45154,7 +45241,7 @@
         <v>110</v>
       </c>
       <c r="F343" s="32" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G343" s="30" t="s">
         <v>112</v>
@@ -45172,10 +45259,10 @@
         <v>113</v>
       </c>
       <c r="L343" s="38" t="s">
-        <v>940</v>
+        <v>1503</v>
       </c>
       <c r="M343" s="39" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="N343" s="40" t="s">
         <v>137</v>
@@ -45263,8 +45350,8 @@
       <c r="E344" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F344" s="32" t="s">
-        <v>942</v>
+      <c r="F344" s="50" t="s">
+        <v>1504</v>
       </c>
       <c r="G344" s="30" t="s">
         <v>112</v>
@@ -45373,8 +45460,8 @@
       <c r="E345" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F345" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F345" s="50" t="s">
+        <v>1505</v>
       </c>
       <c r="G345" s="30" t="s">
         <v>112</v>
@@ -45392,7 +45479,7 @@
         <v>113</v>
       </c>
       <c r="L345" s="38" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="M345" s="39" t="e">
         <v>#N/A</v>
@@ -45484,7 +45571,7 @@
         <v>110</v>
       </c>
       <c r="F346" s="32" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G346" s="30" t="s">
         <v>112</v>
@@ -45505,7 +45592,7 @@
         <v>754</v>
       </c>
       <c r="M346" s="39" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="N346" s="40" t="s">
         <v>137</v>
@@ -45594,7 +45681,7 @@
         <v>110</v>
       </c>
       <c r="F347" s="32" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G347" s="30" t="s">
         <v>112</v>
@@ -45612,10 +45699,10 @@
         <v>113</v>
       </c>
       <c r="L347" s="38" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="M347" s="39" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="N347" s="40" t="s">
         <v>137</v>
@@ -45704,7 +45791,7 @@
         <v>110</v>
       </c>
       <c r="F348" s="32" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G348" s="30" t="s">
         <v>112</v>
@@ -45722,7 +45809,7 @@
         <v>113</v>
       </c>
       <c r="L348" s="38" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="M348" s="39" t="s">
         <v>190</v>
@@ -45814,7 +45901,7 @@
         <v>110</v>
       </c>
       <c r="F349" s="32" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G349" s="30" t="s">
         <v>112</v>
@@ -45832,10 +45919,10 @@
         <v>113</v>
       </c>
       <c r="L349" s="38" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="M349" s="39" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="N349" s="40" t="s">
         <v>137</v>
@@ -45924,7 +46011,7 @@
         <v>110</v>
       </c>
       <c r="F350" s="32" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G350" s="30" t="s">
         <v>112</v>
@@ -45942,10 +46029,10 @@
         <v>113</v>
       </c>
       <c r="L350" s="38" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="M350" s="39" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="N350" s="40" t="s">
         <v>137</v>
@@ -46034,7 +46121,7 @@
         <v>110</v>
       </c>
       <c r="F351" s="32" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G351" s="30" t="s">
         <v>112</v>
@@ -46052,7 +46139,7 @@
         <v>113</v>
       </c>
       <c r="L351" s="38" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M351" s="39" t="s">
         <v>190</v>
@@ -46162,7 +46249,7 @@
         <v>113</v>
       </c>
       <c r="L352" s="38" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="M352" s="39" t="s">
         <v>458</v>
@@ -46254,7 +46341,7 @@
         <v>110</v>
       </c>
       <c r="F353" s="32" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G353" s="30" t="s">
         <v>112</v>
@@ -46272,7 +46359,7 @@
         <v>113</v>
       </c>
       <c r="L353" s="38" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="M353" s="39" t="s">
         <v>190</v>
@@ -46364,7 +46451,7 @@
         <v>110</v>
       </c>
       <c r="F354" s="32" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G354" s="30" t="s">
         <v>112</v>
@@ -46382,10 +46469,10 @@
         <v>113</v>
       </c>
       <c r="L354" s="38" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="M354" s="39" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="N354" s="40" t="s">
         <v>137</v>
@@ -46474,7 +46561,7 @@
         <v>110</v>
       </c>
       <c r="F355" s="32" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G355" s="30" t="s">
         <v>112</v>
@@ -46492,7 +46579,7 @@
         <v>113</v>
       </c>
       <c r="L355" s="38" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="M355" s="39" t="s">
         <v>190</v>
@@ -46584,7 +46671,7 @@
         <v>110</v>
       </c>
       <c r="F356" s="32" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G356" s="30" t="s">
         <v>112</v>
@@ -46694,7 +46781,7 @@
         <v>110</v>
       </c>
       <c r="F357" s="32" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="G357" s="30" t="s">
         <v>112</v>
@@ -46712,7 +46799,7 @@
         <v>113</v>
       </c>
       <c r="L357" s="38" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M357" s="39" t="s">
         <v>190</v>
@@ -46804,7 +46891,7 @@
         <v>110</v>
       </c>
       <c r="F358" s="32" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G358" s="30" t="s">
         <v>112</v>
@@ -46822,10 +46909,10 @@
         <v>113</v>
       </c>
       <c r="L358" s="38" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="M358" s="39" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="N358" s="40" t="s">
         <v>137</v>
@@ -46914,7 +47001,7 @@
         <v>110</v>
       </c>
       <c r="F359" s="32" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G359" s="30" t="s">
         <v>112</v>
@@ -46932,7 +47019,7 @@
         <v>113</v>
       </c>
       <c r="L359" s="38" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="M359" s="39" t="s">
         <v>190</v>
@@ -47024,7 +47111,7 @@
         <v>110</v>
       </c>
       <c r="F360" s="32" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G360" s="30" t="s">
         <v>112</v>
@@ -47042,7 +47129,7 @@
         <v>113</v>
       </c>
       <c r="L360" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M360" s="39" t="s">
         <v>190</v>
@@ -47134,7 +47221,7 @@
         <v>110</v>
       </c>
       <c r="F361" s="32" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G361" s="30" t="s">
         <v>112</v>
@@ -47152,10 +47239,10 @@
         <v>113</v>
       </c>
       <c r="L361" s="38" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="M361" s="39" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="N361" s="40" t="s">
         <v>137</v>
@@ -47244,7 +47331,7 @@
         <v>110</v>
       </c>
       <c r="F362" s="32" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="G362" s="30" t="s">
         <v>112</v>
@@ -47262,7 +47349,7 @@
         <v>113</v>
       </c>
       <c r="L362" s="38" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="M362" s="39" t="s">
         <v>190</v>
@@ -47354,7 +47441,7 @@
         <v>110</v>
       </c>
       <c r="F363" s="32" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G363" s="30" t="s">
         <v>112</v>
@@ -47372,7 +47459,7 @@
         <v>113</v>
       </c>
       <c r="L363" s="38" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="M363" s="39" t="s">
         <v>190</v>
@@ -47464,7 +47551,7 @@
         <v>110</v>
       </c>
       <c r="F364" s="32" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="G364" s="30" t="s">
         <v>112</v>
@@ -47482,7 +47569,7 @@
         <v>113</v>
       </c>
       <c r="L364" s="38" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="M364" s="39" t="s">
         <v>190</v>
@@ -47574,7 +47661,7 @@
         <v>110</v>
       </c>
       <c r="F365" s="32" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="G365" s="30" t="s">
         <v>112</v>
@@ -47592,10 +47679,10 @@
         <v>113</v>
       </c>
       <c r="L365" s="38" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="M365" s="39" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="N365" s="40" t="s">
         <v>137</v>
@@ -47684,7 +47771,7 @@
         <v>110</v>
       </c>
       <c r="F366" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G366" s="30" t="s">
         <v>112</v>
@@ -47702,7 +47789,7 @@
         <v>113</v>
       </c>
       <c r="L366" s="38" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="M366" s="39" t="s">
         <v>190</v>
@@ -47794,7 +47881,7 @@
         <v>110</v>
       </c>
       <c r="F367" s="32" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G367" s="30" t="s">
         <v>112</v>
@@ -47812,10 +47899,10 @@
         <v>113</v>
       </c>
       <c r="L367" s="38" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="M367" s="39" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="N367" s="40" t="s">
         <v>137</v>
@@ -47904,7 +47991,7 @@
         <v>110</v>
       </c>
       <c r="F368" s="32" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="G368" s="30" t="s">
         <v>112</v>
@@ -47922,7 +48009,7 @@
         <v>113</v>
       </c>
       <c r="L368" s="38" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="M368" s="39" t="s">
         <v>190</v>
@@ -48014,7 +48101,7 @@
         <v>110</v>
       </c>
       <c r="F369" s="32" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G369" s="30" t="s">
         <v>112</v>
@@ -48035,7 +48122,7 @@
         <v>659</v>
       </c>
       <c r="M369" s="39" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="N369" s="40" t="s">
         <v>137</v>
@@ -48124,7 +48211,7 @@
         <v>110</v>
       </c>
       <c r="F370" s="32" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G370" s="30" t="s">
         <v>112</v>
@@ -48142,10 +48229,10 @@
         <v>113</v>
       </c>
       <c r="L370" s="38" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="M370" s="39" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="N370" s="40" t="s">
         <v>115</v>
@@ -48252,7 +48339,7 @@
         <v>113</v>
       </c>
       <c r="L371" s="38" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="M371" s="39" t="s">
         <v>486</v>
@@ -48344,7 +48431,7 @@
         <v>110</v>
       </c>
       <c r="F372" s="32" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G372" s="30" t="s">
         <v>112</v>
@@ -48362,7 +48449,7 @@
         <v>113</v>
       </c>
       <c r="L372" s="38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M372" s="39" t="s">
         <v>190</v>
@@ -48454,7 +48541,7 @@
         <v>110</v>
       </c>
       <c r="F373" s="32" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G373" s="30" t="s">
         <v>112</v>
@@ -48472,10 +48559,10 @@
         <v>113</v>
       </c>
       <c r="L373" s="38" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M373" s="39" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="N373" s="40" t="s">
         <v>115</v>
@@ -48564,7 +48651,7 @@
         <v>110</v>
       </c>
       <c r="F374" s="32" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G374" s="30" t="s">
         <v>112</v>
@@ -48582,7 +48669,7 @@
         <v>113</v>
       </c>
       <c r="L374" s="38" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M374" s="39" t="s">
         <v>190</v>
@@ -48674,7 +48761,7 @@
         <v>110</v>
       </c>
       <c r="F375" s="32" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G375" s="30" t="s">
         <v>112</v>
@@ -48692,10 +48779,10 @@
         <v>113</v>
       </c>
       <c r="L375" s="38" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M375" s="39" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="N375" s="40" t="s">
         <v>115</v>
@@ -48784,7 +48871,7 @@
         <v>110</v>
       </c>
       <c r="F376" s="32" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G376" s="30" t="s">
         <v>112</v>
@@ -48802,7 +48889,7 @@
         <v>113</v>
       </c>
       <c r="L376" s="38" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M376" s="39" t="s">
         <v>190</v>
@@ -48894,7 +48981,7 @@
         <v>110</v>
       </c>
       <c r="F377" s="32" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G377" s="30" t="s">
         <v>112</v>
@@ -48912,10 +48999,10 @@
         <v>113</v>
       </c>
       <c r="L377" s="38" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="M377" s="39" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="N377" s="40" t="s">
         <v>115</v>
@@ -49004,7 +49091,7 @@
         <v>110</v>
       </c>
       <c r="F378" s="32" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G378" s="30" t="s">
         <v>112</v>
@@ -49022,10 +49109,10 @@
         <v>113</v>
       </c>
       <c r="L378" s="38" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="M378" s="39" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="N378" s="40" t="s">
         <v>115</v>
@@ -49113,8 +49200,8 @@
       <c r="E379" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F379" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F379" s="50" t="s">
+        <v>1506</v>
       </c>
       <c r="G379" s="30" t="s">
         <v>112</v>
@@ -49132,7 +49219,7 @@
         <v>113</v>
       </c>
       <c r="L379" s="38" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M379" s="39" t="e">
         <v>#N/A</v>
@@ -49242,7 +49329,7 @@
         <v>113</v>
       </c>
       <c r="L380" s="38" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M380" s="39" t="s">
         <v>377</v>
@@ -49334,7 +49421,7 @@
         <v>110</v>
       </c>
       <c r="F381" s="32" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="G381" s="30" t="s">
         <v>112</v>
@@ -49444,7 +49531,7 @@
         <v>110</v>
       </c>
       <c r="F382" s="32" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G382" s="30" t="s">
         <v>112</v>
@@ -49462,10 +49549,10 @@
         <v>113</v>
       </c>
       <c r="L382" s="38" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M382" s="39" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="N382" s="40" t="s">
         <v>115</v>
@@ -49554,7 +49641,7 @@
         <v>110</v>
       </c>
       <c r="F383" s="32" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G383" s="30" t="s">
         <v>112</v>
@@ -49572,7 +49659,7 @@
         <v>113</v>
       </c>
       <c r="L383" s="38" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="M383" s="39" t="s">
         <v>190</v>
@@ -49664,7 +49751,7 @@
         <v>110</v>
       </c>
       <c r="F384" s="32" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G384" s="30" t="s">
         <v>112</v>
@@ -49682,10 +49769,10 @@
         <v>113</v>
       </c>
       <c r="L384" s="38" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="M384" s="39" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="N384" s="40" t="s">
         <v>115</v>
@@ -49774,7 +49861,7 @@
         <v>110</v>
       </c>
       <c r="F385" s="32" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G385" s="30" t="s">
         <v>112</v>
@@ -49792,7 +49879,7 @@
         <v>113</v>
       </c>
       <c r="L385" s="38" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="M385" s="39" t="s">
         <v>190</v>
@@ -49884,7 +49971,7 @@
         <v>110</v>
       </c>
       <c r="F386" s="32" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="G386" s="30" t="s">
         <v>112</v>
@@ -49902,7 +49989,7 @@
         <v>113</v>
       </c>
       <c r="L386" s="38" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M386" s="39" t="s">
         <v>190</v>
@@ -49993,8 +50080,8 @@
       <c r="E387" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F387" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F387" s="50" t="s">
+        <v>1507</v>
       </c>
       <c r="G387" s="30" t="s">
         <v>112</v>
@@ -50012,7 +50099,7 @@
         <v>113</v>
       </c>
       <c r="L387" s="38" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="M387" s="39" t="e">
         <v>#N/A</v>
@@ -50104,7 +50191,7 @@
         <v>110</v>
       </c>
       <c r="F388" s="32" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="G388" s="30" t="s">
         <v>112</v>
@@ -50122,10 +50209,10 @@
         <v>113</v>
       </c>
       <c r="L388" s="38" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="M388" s="39" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="N388" s="40" t="s">
         <v>115</v>
@@ -50214,7 +50301,7 @@
         <v>110</v>
       </c>
       <c r="F389" s="32" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G389" s="30" t="s">
         <v>112</v>
@@ -50232,10 +50319,10 @@
         <v>113</v>
       </c>
       <c r="L389" s="38" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="M389" s="39" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="N389" s="40" t="s">
         <v>115</v>
@@ -50324,7 +50411,7 @@
         <v>110</v>
       </c>
       <c r="F390" s="32" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="G390" s="30" t="s">
         <v>112</v>
@@ -50342,7 +50429,7 @@
         <v>113</v>
       </c>
       <c r="L390" s="38" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M390" s="39" t="s">
         <v>190</v>
@@ -50434,7 +50521,7 @@
         <v>110</v>
       </c>
       <c r="F391" s="32" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G391" s="30" t="s">
         <v>112</v>
@@ -50452,7 +50539,7 @@
         <v>113</v>
       </c>
       <c r="L391" s="38" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="M391" s="39" t="s">
         <v>190</v>
@@ -50544,7 +50631,7 @@
         <v>110</v>
       </c>
       <c r="F392" s="32" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G392" s="30" t="s">
         <v>112</v>
@@ -50562,7 +50649,7 @@
         <v>113</v>
       </c>
       <c r="L392" s="38" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="M392" s="39" t="s">
         <v>190</v>
@@ -50672,7 +50759,7 @@
         <v>113</v>
       </c>
       <c r="L393" s="38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="M393" s="39" t="s">
         <v>546</v>
@@ -50764,7 +50851,7 @@
         <v>110</v>
       </c>
       <c r="F394" s="32" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G394" s="30" t="s">
         <v>112</v>
@@ -50782,7 +50869,7 @@
         <v>113</v>
       </c>
       <c r="L394" s="38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="M394" s="39" t="s">
         <v>190</v>
@@ -50874,7 +50961,7 @@
         <v>110</v>
       </c>
       <c r="F395" s="32" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="G395" s="30" t="s">
         <v>112</v>
@@ -50892,7 +50979,7 @@
         <v>113</v>
       </c>
       <c r="L395" s="38" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="M395" s="39" t="s">
         <v>190</v>
@@ -50984,7 +51071,7 @@
         <v>110</v>
       </c>
       <c r="F396" s="32" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="G396" s="30" t="s">
         <v>112</v>
@@ -51002,10 +51089,10 @@
         <v>113</v>
       </c>
       <c r="L396" s="38" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M396" s="39" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="N396" s="40" t="s">
         <v>115</v>
@@ -51094,7 +51181,7 @@
         <v>110</v>
       </c>
       <c r="F397" s="32" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G397" s="30" t="s">
         <v>112</v>
@@ -51112,7 +51199,7 @@
         <v>113</v>
       </c>
       <c r="L397" s="38" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="M397" s="39" t="s">
         <v>190</v>
@@ -51204,7 +51291,7 @@
         <v>110</v>
       </c>
       <c r="F398" s="32" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="G398" s="30" t="s">
         <v>112</v>
@@ -51222,10 +51309,10 @@
         <v>113</v>
       </c>
       <c r="L398" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M398" s="39" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="N398" s="40" t="s">
         <v>115</v>
@@ -51314,7 +51401,7 @@
         <v>110</v>
       </c>
       <c r="F399" s="32" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G399" s="30" t="s">
         <v>112</v>
@@ -51335,7 +51422,7 @@
         <v>250</v>
       </c>
       <c r="M399" s="39" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="N399" s="40" t="s">
         <v>115</v>
@@ -51424,7 +51511,7 @@
         <v>110</v>
       </c>
       <c r="F400" s="32" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G400" s="30" t="s">
         <v>112</v>
@@ -51442,7 +51529,7 @@
         <v>113</v>
       </c>
       <c r="L400" s="38" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="M400" s="39" t="s">
         <v>190</v>
@@ -51534,7 +51621,7 @@
         <v>110</v>
       </c>
       <c r="F401" s="32" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G401" s="30" t="s">
         <v>112</v>
@@ -51644,7 +51731,7 @@
         <v>110</v>
       </c>
       <c r="F402" s="32" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="G402" s="30" t="s">
         <v>112</v>
@@ -51662,7 +51749,7 @@
         <v>113</v>
       </c>
       <c r="L402" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M402" s="39" t="s">
         <v>408</v>
@@ -51754,7 +51841,7 @@
         <v>110</v>
       </c>
       <c r="F403" s="32" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="G403" s="30" t="s">
         <v>112</v>
@@ -51772,7 +51859,7 @@
         <v>113</v>
       </c>
       <c r="L403" s="38" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M403" s="39" t="s">
         <v>118</v>
@@ -51864,7 +51951,7 @@
         <v>110</v>
       </c>
       <c r="F404" s="32" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="G404" s="30" t="s">
         <v>112</v>
@@ -51882,7 +51969,7 @@
         <v>113</v>
       </c>
       <c r="L404" s="38" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="M404" s="39" t="s">
         <v>118</v>
@@ -51974,7 +52061,7 @@
         <v>110</v>
       </c>
       <c r="F405" s="32" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="G405" s="30" t="s">
         <v>112</v>
@@ -51992,7 +52079,7 @@
         <v>113</v>
       </c>
       <c r="L405" s="38" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="M405" s="39" t="s">
         <v>190</v>
@@ -52084,7 +52171,7 @@
         <v>110</v>
       </c>
       <c r="F406" s="32" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="G406" s="30" t="s">
         <v>112</v>
@@ -52102,7 +52189,7 @@
         <v>113</v>
       </c>
       <c r="L406" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M406" s="39" t="s">
         <v>190</v>
@@ -52194,7 +52281,7 @@
         <v>110</v>
       </c>
       <c r="F407" s="32" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G407" s="30" t="s">
         <v>112</v>
@@ -52212,10 +52299,10 @@
         <v>113</v>
       </c>
       <c r="L407" s="38" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="M407" s="39" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="N407" s="40" t="s">
         <v>115</v>
@@ -52304,7 +52391,7 @@
         <v>110</v>
       </c>
       <c r="F408" s="32" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="G408" s="30" t="s">
         <v>112</v>
@@ -52322,7 +52409,7 @@
         <v>113</v>
       </c>
       <c r="L408" s="38" t="s">
-        <v>1072</v>
+        <v>1510</v>
       </c>
       <c r="M408" s="39" t="s">
         <v>190</v>
@@ -52413,8 +52500,8 @@
       <c r="E409" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F409" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F409" s="50" t="s">
+        <v>1508</v>
       </c>
       <c r="G409" s="30" t="s">
         <v>112</v>
@@ -52432,7 +52519,7 @@
         <v>113</v>
       </c>
       <c r="L409" s="38" t="s">
-        <v>1073</v>
+        <v>1511</v>
       </c>
       <c r="M409" s="39" t="e">
         <v>#N/A</v>
@@ -52524,7 +52611,7 @@
         <v>110</v>
       </c>
       <c r="F410" s="32" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G410" s="30" t="s">
         <v>112</v>
@@ -52545,7 +52632,7 @@
         <v>346</v>
       </c>
       <c r="M410" s="39" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="N410" s="40" t="s">
         <v>115</v>
@@ -52634,7 +52721,7 @@
         <v>110</v>
       </c>
       <c r="F411" s="32" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G411" s="30" t="s">
         <v>112</v>
@@ -52652,7 +52739,7 @@
         <v>113</v>
       </c>
       <c r="L411" s="38" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="M411" s="39" t="s">
         <v>190</v>
@@ -52744,7 +52831,7 @@
         <v>110</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G412" s="30" t="s">
         <v>112</v>
@@ -52762,7 +52849,7 @@
         <v>113</v>
       </c>
       <c r="L412" s="38" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="M412" s="39" t="s">
         <v>190</v>
@@ -52854,7 +52941,7 @@
         <v>110</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G413" s="30" t="s">
         <v>112</v>
@@ -52875,7 +52962,7 @@
         <v>713</v>
       </c>
       <c r="M413" s="39" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="N413" s="40" t="s">
         <v>115</v>
@@ -52964,7 +53051,7 @@
         <v>110</v>
       </c>
       <c r="F414" s="32" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="G414" s="30" t="s">
         <v>112</v>
@@ -52982,7 +53069,7 @@
         <v>113</v>
       </c>
       <c r="L414" s="38" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="M414" s="39" t="s">
         <v>229</v>
@@ -53074,7 +53161,7 @@
         <v>110</v>
       </c>
       <c r="F415" s="32" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="G415" s="30" t="s">
         <v>112</v>
@@ -53092,7 +53179,7 @@
         <v>113</v>
       </c>
       <c r="L415" s="38" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="M415" s="39" t="s">
         <v>190</v>
@@ -53184,7 +53271,7 @@
         <v>110</v>
       </c>
       <c r="F416" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G416" s="30" t="s">
         <v>112</v>
@@ -53202,7 +53289,7 @@
         <v>113</v>
       </c>
       <c r="L416" s="38" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="M416" s="39" t="s">
         <v>190</v>
@@ -53294,7 +53381,7 @@
         <v>110</v>
       </c>
       <c r="F417" s="32" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="G417" s="30" t="s">
         <v>112</v>
@@ -53312,10 +53399,10 @@
         <v>113</v>
       </c>
       <c r="L417" s="38" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="M417" s="39" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="N417" s="40" t="s">
         <v>115</v>
@@ -53403,8 +53490,8 @@
       <c r="E418" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F418" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F418" s="50" t="s">
+        <v>1509</v>
       </c>
       <c r="G418" s="30" t="s">
         <v>112</v>
@@ -53422,7 +53509,7 @@
         <v>113</v>
       </c>
       <c r="L418" s="38" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="M418" s="39" t="e">
         <v>#N/A</v>
@@ -53514,7 +53601,7 @@
         <v>110</v>
       </c>
       <c r="F419" s="32" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G419" s="30" t="s">
         <v>112</v>
@@ -53532,10 +53619,10 @@
         <v>113</v>
       </c>
       <c r="L419" s="38" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="M419" s="39" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="N419" s="40" t="s">
         <v>115</v>
@@ -53624,7 +53711,7 @@
         <v>110</v>
       </c>
       <c r="F420" s="32" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="G420" s="30" t="s">
         <v>112</v>
@@ -53642,7 +53729,7 @@
         <v>113</v>
       </c>
       <c r="L420" s="38" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="M420" s="39" t="s">
         <v>190</v>
@@ -53734,7 +53821,7 @@
         <v>110</v>
       </c>
       <c r="F421" s="32" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="G421" s="30" t="s">
         <v>112</v>
@@ -53752,7 +53839,7 @@
         <v>113</v>
       </c>
       <c r="L421" s="38" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="M421" s="39" t="s">
         <v>190</v>
@@ -53844,7 +53931,7 @@
         <v>110</v>
       </c>
       <c r="F422" s="32" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G422" s="30" t="s">
         <v>112</v>
@@ -53862,7 +53949,7 @@
         <v>113</v>
       </c>
       <c r="L422" s="38" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="M422" s="39" t="s">
         <v>190</v>
@@ -53972,7 +54059,7 @@
         <v>113</v>
       </c>
       <c r="L423" s="38" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="M423" s="39" t="s">
         <v>190</v>
@@ -54064,7 +54151,7 @@
         <v>110</v>
       </c>
       <c r="F424" s="32" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="G424" s="30" t="s">
         <v>112</v>
@@ -54082,7 +54169,7 @@
         <v>113</v>
       </c>
       <c r="L424" s="38" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="M424" s="39" t="s">
         <v>568</v>
@@ -54174,7 +54261,7 @@
         <v>110</v>
       </c>
       <c r="F425" s="32" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G425" s="30" t="s">
         <v>112</v>
@@ -54192,7 +54279,7 @@
         <v>113</v>
       </c>
       <c r="L425" s="38" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="M425" s="39" t="s">
         <v>190</v>
@@ -54284,7 +54371,7 @@
         <v>110</v>
       </c>
       <c r="F426" s="32" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="G426" s="30" t="s">
         <v>112</v>
@@ -54302,7 +54389,7 @@
         <v>113</v>
       </c>
       <c r="L426" s="38" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="M426" s="39" t="s">
         <v>190</v>
@@ -54412,7 +54499,7 @@
         <v>113</v>
       </c>
       <c r="L427" s="38" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="M427" s="39" t="e">
         <v>#N/A</v>
@@ -54504,7 +54591,7 @@
         <v>110</v>
       </c>
       <c r="F428" s="32" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="G428" s="30" t="s">
         <v>112</v>
@@ -54522,7 +54609,7 @@
         <v>113</v>
       </c>
       <c r="L428" s="38" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="M428" s="39" t="s">
         <v>190</v>
@@ -54614,7 +54701,7 @@
         <v>110</v>
       </c>
       <c r="F429" s="32" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="G429" s="30" t="s">
         <v>112</v>
@@ -54632,7 +54719,7 @@
         <v>113</v>
       </c>
       <c r="L429" s="38" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="M429" s="39" t="s">
         <v>190</v>
@@ -54742,7 +54829,7 @@
         <v>113</v>
       </c>
       <c r="L430" s="38" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="M430" s="39" t="e">
         <v>#N/A</v>
@@ -54834,7 +54921,7 @@
         <v>110</v>
       </c>
       <c r="F431" s="32" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="G431" s="30" t="s">
         <v>112</v>
@@ -54852,7 +54939,7 @@
         <v>113</v>
       </c>
       <c r="L431" s="38" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M431" s="39" t="s">
         <v>190</v>
@@ -54944,7 +55031,7 @@
         <v>110</v>
       </c>
       <c r="F432" s="32" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="G432" s="30" t="s">
         <v>112</v>
@@ -54962,7 +55049,7 @@
         <v>113</v>
       </c>
       <c r="L432" s="38" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="M432" s="39" t="s">
         <v>190</v>
@@ -55054,7 +55141,7 @@
         <v>110</v>
       </c>
       <c r="F433" s="32" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="G433" s="30" t="s">
         <v>112</v>
@@ -55072,7 +55159,7 @@
         <v>113</v>
       </c>
       <c r="L433" s="38" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="M433" s="39" t="s">
         <v>190</v>
@@ -55164,7 +55251,7 @@
         <v>110</v>
       </c>
       <c r="F434" s="32" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="G434" s="30" t="s">
         <v>112</v>
@@ -55182,10 +55269,10 @@
         <v>113</v>
       </c>
       <c r="L434" s="38" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="M434" s="39" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="N434" s="40" t="s">
         <v>115</v>
@@ -55274,7 +55361,7 @@
         <v>110</v>
       </c>
       <c r="F435" s="32" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G435" s="30" t="s">
         <v>112</v>
@@ -55292,7 +55379,7 @@
         <v>113</v>
       </c>
       <c r="L435" s="38" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="M435" s="39" t="s">
         <v>190</v>
@@ -55384,7 +55471,7 @@
         <v>110</v>
       </c>
       <c r="F436" s="32" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G436" s="30" t="s">
         <v>112</v>
@@ -55402,7 +55489,7 @@
         <v>113</v>
       </c>
       <c r="L436" s="38" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="M436" s="39" t="s">
         <v>190</v>
@@ -55494,7 +55581,7 @@
         <v>110</v>
       </c>
       <c r="F437" s="32" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="G437" s="30" t="s">
         <v>112</v>
@@ -55512,7 +55599,7 @@
         <v>113</v>
       </c>
       <c r="L437" s="38" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="M437" s="39" t="s">
         <v>190</v>
@@ -55604,7 +55691,7 @@
         <v>110</v>
       </c>
       <c r="F438" s="32" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G438" s="30" t="s">
         <v>112</v>
@@ -55622,7 +55709,7 @@
         <v>113</v>
       </c>
       <c r="L438" s="38" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="M438" s="39" t="s">
         <v>190</v>
@@ -55714,7 +55801,7 @@
         <v>110</v>
       </c>
       <c r="F439" s="32" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="G439" s="30" t="s">
         <v>112</v>
@@ -55732,10 +55819,10 @@
         <v>113</v>
       </c>
       <c r="L439" s="38" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="M439" s="39" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="N439" s="40" t="s">
         <v>115</v>
@@ -55824,7 +55911,7 @@
         <v>110</v>
       </c>
       <c r="F440" s="32" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="G440" s="30" t="s">
         <v>112</v>
@@ -55842,10 +55929,10 @@
         <v>113</v>
       </c>
       <c r="L440" s="38" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="M440" s="39" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="N440" s="40" t="s">
         <v>115</v>
@@ -55934,7 +56021,7 @@
         <v>110</v>
       </c>
       <c r="F441" s="32" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G441" s="30" t="s">
         <v>112</v>
@@ -55952,10 +56039,10 @@
         <v>113</v>
       </c>
       <c r="L441" s="38" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="M441" s="39" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="N441" s="40" t="s">
         <v>115</v>
@@ -56044,7 +56131,7 @@
         <v>110</v>
       </c>
       <c r="F442" s="32" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G442" s="30" t="s">
         <v>112</v>
@@ -56062,7 +56149,7 @@
         <v>113</v>
       </c>
       <c r="L442" s="38" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="M442" s="39" t="s">
         <v>190</v>
@@ -56154,7 +56241,7 @@
         <v>110</v>
       </c>
       <c r="F443" s="32" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="G443" s="30" t="s">
         <v>112</v>
@@ -56172,7 +56259,7 @@
         <v>113</v>
       </c>
       <c r="L443" s="38" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="M443" s="39" t="s">
         <v>190</v>
@@ -56264,7 +56351,7 @@
         <v>110</v>
       </c>
       <c r="F444" s="32" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="G444" s="30" t="s">
         <v>112</v>
@@ -56282,10 +56369,10 @@
         <v>113</v>
       </c>
       <c r="L444" s="38" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="M444" s="39" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="N444" s="40" t="s">
         <v>115</v>
@@ -56392,7 +56479,7 @@
         <v>113</v>
       </c>
       <c r="L445" s="38" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="M445" s="39" t="e">
         <v>#N/A</v>
@@ -56484,7 +56571,7 @@
         <v>110</v>
       </c>
       <c r="F446" s="32" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="G446" s="30" t="s">
         <v>112</v>
@@ -56502,10 +56589,10 @@
         <v>113</v>
       </c>
       <c r="L446" s="38" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="M446" s="39" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="N446" s="40" t="s">
         <v>115</v>
@@ -56612,7 +56699,7 @@
         <v>113</v>
       </c>
       <c r="L447" s="38" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="M447" s="39" t="s">
         <v>768</v>
@@ -56704,7 +56791,7 @@
         <v>110</v>
       </c>
       <c r="F448" s="32" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="G448" s="30" t="s">
         <v>112</v>
@@ -56722,7 +56809,7 @@
         <v>113</v>
       </c>
       <c r="L448" s="38" t="s">
-        <v>1152</v>
+        <v>1513</v>
       </c>
       <c r="M448" s="39" t="s">
         <v>190</v>
@@ -56814,7 +56901,7 @@
         <v>110</v>
       </c>
       <c r="F449" s="32" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="G449" s="30" t="s">
         <v>112</v>
@@ -56832,7 +56919,7 @@
         <v>113</v>
       </c>
       <c r="L449" s="38" t="s">
-        <v>1154</v>
+        <v>1512</v>
       </c>
       <c r="M449" s="39" t="s">
         <v>190</v>
@@ -56924,7 +57011,7 @@
         <v>110</v>
       </c>
       <c r="F450" s="32" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="G450" s="30" t="s">
         <v>112</v>
@@ -56942,10 +57029,10 @@
         <v>113</v>
       </c>
       <c r="L450" s="38" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="M450" s="39" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="N450" s="40" t="s">
         <v>115</v>
@@ -57033,8 +57120,8 @@
       <c r="E451" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F451" s="32" t="s">
-        <v>1158</v>
+      <c r="F451" s="50" t="s">
+        <v>1514</v>
       </c>
       <c r="G451" s="30" t="s">
         <v>112</v>
@@ -57052,10 +57139,10 @@
         <v>113</v>
       </c>
       <c r="L451" s="38" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="M451" s="39" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="N451" s="40" t="s">
         <v>115</v>
@@ -57143,8 +57230,8 @@
       <c r="E452" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F452" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F452" s="50" t="s">
+        <v>1515</v>
       </c>
       <c r="G452" s="30" t="s">
         <v>112</v>
@@ -57162,7 +57249,7 @@
         <v>113</v>
       </c>
       <c r="L452" s="38" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="M452" s="39" t="e">
         <v>#N/A</v>
@@ -57254,7 +57341,7 @@
         <v>110</v>
       </c>
       <c r="F453" s="32" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="G453" s="30" t="s">
         <v>112</v>
@@ -57364,7 +57451,7 @@
         <v>110</v>
       </c>
       <c r="F454" s="32" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="G454" s="30" t="s">
         <v>112</v>
@@ -57382,7 +57469,7 @@
         <v>113</v>
       </c>
       <c r="L454" s="38" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="M454" s="39" t="s">
         <v>118</v>
@@ -57474,7 +57561,7 @@
         <v>110</v>
       </c>
       <c r="F455" s="32" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="G455" s="30" t="s">
         <v>112</v>
@@ -57495,7 +57582,7 @@
         <v>384</v>
       </c>
       <c r="M455" s="39" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="N455" s="40" t="s">
         <v>115</v>
@@ -57583,8 +57670,8 @@
       <c r="E456" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F456" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F456" s="50" t="s">
+        <v>1516</v>
       </c>
       <c r="G456" s="30" t="s">
         <v>112</v>
@@ -57602,7 +57689,7 @@
         <v>113</v>
       </c>
       <c r="L456" s="38" t="s">
-        <v>1167</v>
+        <v>1521</v>
       </c>
       <c r="M456" s="39" t="e">
         <v>#N/A</v>
@@ -57694,7 +57781,7 @@
         <v>110</v>
       </c>
       <c r="F457" s="32" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="G457" s="30" t="s">
         <v>112</v>
@@ -57712,7 +57799,7 @@
         <v>113</v>
       </c>
       <c r="L457" s="38" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="M457" s="39" t="s">
         <v>190</v>
@@ -57804,7 +57891,7 @@
         <v>110</v>
       </c>
       <c r="F458" s="32" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G458" s="30" t="s">
         <v>112</v>
@@ -57822,7 +57909,7 @@
         <v>113</v>
       </c>
       <c r="L458" s="38" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="M458" s="39" t="s">
         <v>190</v>
@@ -57914,7 +58001,7 @@
         <v>110</v>
       </c>
       <c r="F459" s="32" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="G459" s="30" t="s">
         <v>112</v>
@@ -57932,10 +58019,10 @@
         <v>113</v>
       </c>
       <c r="L459" s="38" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="M459" s="39" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="N459" s="40" t="s">
         <v>115</v>
@@ -58024,7 +58111,7 @@
         <v>110</v>
       </c>
       <c r="F460" s="32" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="G460" s="30" t="s">
         <v>112</v>
@@ -58042,10 +58129,10 @@
         <v>113</v>
       </c>
       <c r="L460" s="38" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="M460" s="39" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="N460" s="40" t="s">
         <v>137</v>
@@ -58134,7 +58221,7 @@
         <v>110</v>
       </c>
       <c r="F461" s="32" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="G461" s="30" t="s">
         <v>112</v>
@@ -58152,10 +58239,10 @@
         <v>113</v>
       </c>
       <c r="L461" s="38" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="M461" s="39" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="N461" s="40" t="s">
         <v>137</v>
@@ -58244,7 +58331,7 @@
         <v>110</v>
       </c>
       <c r="F462" s="32" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="G462" s="30" t="s">
         <v>112</v>
@@ -58262,7 +58349,7 @@
         <v>113</v>
       </c>
       <c r="L462" s="38" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="M462" s="39" t="s">
         <v>190</v>
@@ -58354,7 +58441,7 @@
         <v>110</v>
       </c>
       <c r="F463" s="32" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="G463" s="30" t="s">
         <v>112</v>
@@ -58372,10 +58459,10 @@
         <v>113</v>
       </c>
       <c r="L463" s="38" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="M463" s="39" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="N463" s="40" t="s">
         <v>137</v>
@@ -58464,7 +58551,7 @@
         <v>110</v>
       </c>
       <c r="F464" s="32" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="G464" s="30" t="s">
         <v>112</v>
@@ -58482,10 +58569,10 @@
         <v>113</v>
       </c>
       <c r="L464" s="38" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="M464" s="39" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="N464" s="40" t="s">
         <v>137</v>
@@ -58574,7 +58661,7 @@
         <v>110</v>
       </c>
       <c r="F465" s="32" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="G465" s="30" t="s">
         <v>112</v>
@@ -58592,10 +58679,10 @@
         <v>113</v>
       </c>
       <c r="L465" s="38" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="M465" s="39" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="N465" s="40" t="s">
         <v>137</v>
@@ -58684,7 +58771,7 @@
         <v>110</v>
       </c>
       <c r="F466" s="32" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="G466" s="30" t="s">
         <v>112</v>
@@ -58702,7 +58789,7 @@
         <v>113</v>
       </c>
       <c r="L466" s="38" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="M466" s="39" t="s">
         <v>190</v>
@@ -58793,8 +58880,8 @@
       <c r="E467" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F467" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F467" s="50" t="s">
+        <v>1517</v>
       </c>
       <c r="G467" s="30" t="s">
         <v>112</v>
@@ -58812,7 +58899,7 @@
         <v>113</v>
       </c>
       <c r="L467" s="38" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="M467" s="39" t="e">
         <v>#N/A</v>
@@ -58904,7 +58991,7 @@
         <v>110</v>
       </c>
       <c r="F468" s="32" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="G468" s="30" t="s">
         <v>112</v>
@@ -58922,10 +59009,10 @@
         <v>113</v>
       </c>
       <c r="L468" s="38" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="M468" s="39" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="N468" s="40" t="s">
         <v>137</v>
@@ -59014,7 +59101,7 @@
         <v>110</v>
       </c>
       <c r="F469" s="32" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="G469" s="30" t="s">
         <v>112</v>
@@ -59032,7 +59119,7 @@
         <v>113</v>
       </c>
       <c r="L469" s="38" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="M469" s="39" t="s">
         <v>190</v>
@@ -59124,7 +59211,7 @@
         <v>110</v>
       </c>
       <c r="F470" s="32" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="G470" s="30" t="s">
         <v>112</v>
@@ -59142,7 +59229,7 @@
         <v>113</v>
       </c>
       <c r="L470" s="38" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="M470" s="39" t="s">
         <v>190</v>
@@ -59252,7 +59339,7 @@
         <v>113</v>
       </c>
       <c r="L471" s="38" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="M471" s="39" t="s">
         <v>377</v>
@@ -59362,7 +59449,7 @@
         <v>113</v>
       </c>
       <c r="L472" s="38" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="M472" s="39" t="s">
         <v>549</v>
@@ -59454,7 +59541,7 @@
         <v>110</v>
       </c>
       <c r="F473" s="32" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="G473" s="30" t="s">
         <v>112</v>
@@ -59472,7 +59559,7 @@
         <v>113</v>
       </c>
       <c r="L473" s="38" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="M473" s="39" t="s">
         <v>190</v>
@@ -59564,7 +59651,7 @@
         <v>110</v>
       </c>
       <c r="F474" s="32" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="G474" s="30" t="s">
         <v>112</v>
@@ -59582,10 +59669,10 @@
         <v>113</v>
       </c>
       <c r="L474" s="38" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="M474" s="39" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="N474" s="40" t="s">
         <v>137</v>
@@ -59673,8 +59760,8 @@
       <c r="E475" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F475" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F475" s="50" t="s">
+        <v>1518</v>
       </c>
       <c r="G475" s="30" t="s">
         <v>112</v>
@@ -59692,7 +59779,7 @@
         <v>113</v>
       </c>
       <c r="L475" s="38" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="M475" s="39" t="e">
         <v>#N/A</v>
@@ -59784,7 +59871,7 @@
         <v>110</v>
       </c>
       <c r="F476" s="32" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="G476" s="30" t="s">
         <v>112</v>
@@ -59802,10 +59889,10 @@
         <v>113</v>
       </c>
       <c r="L476" s="38" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M476" s="39" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="N476" s="40" t="s">
         <v>137</v>
@@ -59894,7 +59981,7 @@
         <v>110</v>
       </c>
       <c r="F477" s="32" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="G477" s="30" t="s">
         <v>112</v>
@@ -59912,7 +59999,7 @@
         <v>113</v>
       </c>
       <c r="L477" s="38" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="M477" s="39" t="s">
         <v>190</v>
@@ -60022,10 +60109,10 @@
         <v>113</v>
       </c>
       <c r="L478" s="38" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="M478" s="39" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="N478" s="40" t="s">
         <v>137</v>
@@ -60114,7 +60201,7 @@
         <v>110</v>
       </c>
       <c r="F479" s="32" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="G479" s="30" t="s">
         <v>112</v>
@@ -60132,10 +60219,10 @@
         <v>113</v>
       </c>
       <c r="L479" s="38" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="M479" s="39" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="N479" s="40" t="s">
         <v>137</v>
@@ -60224,7 +60311,7 @@
         <v>110</v>
       </c>
       <c r="F480" s="32" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="G480" s="30" t="s">
         <v>112</v>
@@ -60242,7 +60329,7 @@
         <v>113</v>
       </c>
       <c r="L480" s="38" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="M480" s="39" t="s">
         <v>118</v>
@@ -60333,8 +60420,8 @@
       <c r="E481" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F481" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F481" s="50" t="s">
+        <v>1519</v>
       </c>
       <c r="G481" s="30" t="s">
         <v>112</v>
@@ -60352,7 +60439,7 @@
         <v>113</v>
       </c>
       <c r="L481" s="38" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="M481" s="39" t="e">
         <v>#N/A</v>
@@ -60444,7 +60531,7 @@
         <v>110</v>
       </c>
       <c r="F482" s="32" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="G482" s="30" t="s">
         <v>112</v>
@@ -60462,10 +60549,10 @@
         <v>113</v>
       </c>
       <c r="L482" s="38" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="M482" s="39" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="N482" s="40" t="s">
         <v>137</v>
@@ -60554,7 +60641,7 @@
         <v>110</v>
       </c>
       <c r="F483" s="32" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="G483" s="30" t="s">
         <v>112</v>
@@ -60572,7 +60659,7 @@
         <v>113</v>
       </c>
       <c r="L483" s="38" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="M483" s="39" t="s">
         <v>190</v>
@@ -60664,7 +60751,7 @@
         <v>110</v>
       </c>
       <c r="F484" s="32" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G484" s="30" t="s">
         <v>112</v>
@@ -60682,10 +60769,10 @@
         <v>113</v>
       </c>
       <c r="L484" s="38" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="M484" s="39" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="N484" s="40" t="s">
         <v>137</v>
@@ -60774,7 +60861,7 @@
         <v>110</v>
       </c>
       <c r="F485" s="32" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="G485" s="30" t="s">
         <v>112</v>
@@ -60792,7 +60879,7 @@
         <v>113</v>
       </c>
       <c r="L485" s="38" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="M485" s="39" t="s">
         <v>190</v>
@@ -60884,7 +60971,7 @@
         <v>110</v>
       </c>
       <c r="F486" s="32" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="G486" s="30" t="s">
         <v>112</v>
@@ -60902,7 +60989,7 @@
         <v>113</v>
       </c>
       <c r="L486" s="38" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="M486" s="39" t="s">
         <v>190</v>
@@ -60994,7 +61081,7 @@
         <v>110</v>
       </c>
       <c r="F487" s="32" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="G487" s="30" t="s">
         <v>112</v>
@@ -61012,7 +61099,7 @@
         <v>113</v>
       </c>
       <c r="L487" s="38" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="M487" s="39" t="s">
         <v>190</v>
@@ -61104,7 +61191,7 @@
         <v>110</v>
       </c>
       <c r="F488" s="32" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="G488" s="30" t="s">
         <v>112</v>
@@ -61122,7 +61209,7 @@
         <v>113</v>
       </c>
       <c r="L488" s="38" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="M488" s="39" t="s">
         <v>190</v>
@@ -61235,7 +61322,7 @@
         <v>181</v>
       </c>
       <c r="M489" s="39" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="N489" s="40" t="s">
         <v>137</v>
@@ -61324,7 +61411,7 @@
         <v>110</v>
       </c>
       <c r="F490" s="32" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="G490" s="30" t="s">
         <v>112</v>
@@ -61434,7 +61521,7 @@
         <v>110</v>
       </c>
       <c r="F491" s="32" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="G491" s="30" t="s">
         <v>112</v>
@@ -61452,7 +61539,7 @@
         <v>113</v>
       </c>
       <c r="L491" s="38" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="M491" s="39" t="s">
         <v>190</v>
@@ -61544,7 +61631,7 @@
         <v>110</v>
       </c>
       <c r="F492" s="32" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="G492" s="30" t="s">
         <v>112</v>
@@ -61562,7 +61649,7 @@
         <v>113</v>
       </c>
       <c r="L492" s="38" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M492" s="39" t="s">
         <v>190</v>
@@ -61672,7 +61759,7 @@
         <v>113</v>
       </c>
       <c r="L493" s="38" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="M493" s="39" t="s">
         <v>342</v>
@@ -61763,8 +61850,8 @@
       <c r="E494" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F494" s="32" t="e">
-        <v>#N/A</v>
+      <c r="F494" s="50" t="s">
+        <v>1520</v>
       </c>
       <c r="G494" s="30" t="s">
         <v>112</v>
@@ -61782,7 +61869,7 @@
         <v>113</v>
       </c>
       <c r="L494" s="38" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="M494" s="39" t="e">
         <v>#N/A</v>
@@ -61874,7 +61961,7 @@
         <v>110</v>
       </c>
       <c r="F495" s="32" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="G495" s="30" t="s">
         <v>112</v>
@@ -61984,7 +62071,7 @@
         <v>110</v>
       </c>
       <c r="F496" s="32" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="G496" s="30" t="s">
         <v>112</v>
@@ -62002,10 +62089,10 @@
         <v>113</v>
       </c>
       <c r="L496" s="38" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="M496" s="39" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="N496" s="40" t="s">
         <v>137</v>
@@ -62094,7 +62181,7 @@
         <v>110</v>
       </c>
       <c r="F497" s="32" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="G497" s="30" t="s">
         <v>112</v>
@@ -62112,7 +62199,7 @@
         <v>113</v>
       </c>
       <c r="L497" s="38" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="M497" s="39" t="s">
         <v>190</v>
@@ -62204,7 +62291,7 @@
         <v>110</v>
       </c>
       <c r="F498" s="32" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="G498" s="30" t="s">
         <v>112</v>
@@ -62222,10 +62309,10 @@
         <v>113</v>
       </c>
       <c r="L498" s="38" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="M498" s="39" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="N498" s="40" t="s">
         <v>137</v>
@@ -62314,7 +62401,7 @@
         <v>110</v>
       </c>
       <c r="F499" s="32" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="G499" s="30" t="s">
         <v>112</v>
@@ -62332,10 +62419,10 @@
         <v>113</v>
       </c>
       <c r="L499" s="38" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="M499" s="39" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="N499" s="40" t="s">
         <v>137</v>
@@ -62424,7 +62511,7 @@
         <v>110</v>
       </c>
       <c r="F500" s="32" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="G500" s="30" t="s">
         <v>112</v>
@@ -62442,7 +62529,7 @@
         <v>113</v>
       </c>
       <c r="L500" s="38" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="M500" s="39" t="s">
         <v>190</v>
@@ -62534,7 +62621,7 @@
         <v>110</v>
       </c>
       <c r="F501" s="32" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="G501" s="30" t="s">
         <v>112</v>
@@ -62552,7 +62639,7 @@
         <v>113</v>
       </c>
       <c r="L501" s="38" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="M501" s="39" t="s">
         <v>190</v>
@@ -62644,7 +62731,7 @@
         <v>110</v>
       </c>
       <c r="F502" s="32" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="G502" s="30" t="s">
         <v>112</v>
@@ -62754,7 +62841,7 @@
         <v>110</v>
       </c>
       <c r="F503" s="32" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="G503" s="30" t="s">
         <v>112</v>
@@ -62772,10 +62859,10 @@
         <v>113</v>
       </c>
       <c r="L503" s="38" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="M503" s="39" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="N503" s="40" t="s">
         <v>115</v>
@@ -62882,7 +62969,7 @@
         <v>113</v>
       </c>
       <c r="L504" s="38" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="M504" s="39" t="s">
         <v>461</v>
@@ -62974,7 +63061,7 @@
         <v>110</v>
       </c>
       <c r="F505" s="32" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="G505" s="30" t="s">
         <v>112</v>
@@ -62992,10 +63079,10 @@
         <v>113</v>
       </c>
       <c r="L505" s="38" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="M505" s="39" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="N505" s="40" t="s">
         <v>115</v>
@@ -63084,7 +63171,7 @@
         <v>110</v>
       </c>
       <c r="F506" s="32" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="G506" s="30" t="s">
         <v>112</v>
@@ -63102,10 +63189,10 @@
         <v>113</v>
       </c>
       <c r="L506" s="38" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="M506" s="39" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="N506" s="40" t="s">
         <v>115</v>
@@ -63194,7 +63281,7 @@
         <v>110</v>
       </c>
       <c r="F507" s="32" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="G507" s="30" t="s">
         <v>112</v>
@@ -63212,10 +63299,10 @@
         <v>113</v>
       </c>
       <c r="L507" s="38" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="M507" s="39" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="N507" s="40" t="s">
         <v>115</v>
@@ -63304,7 +63391,7 @@
         <v>110</v>
       </c>
       <c r="F508" s="32" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="G508" s="30" t="s">
         <v>112</v>
@@ -63322,7 +63409,7 @@
         <v>113</v>
       </c>
       <c r="L508" s="38" t="s">
-        <v>1271</v>
+        <v>1522</v>
       </c>
       <c r="M508" s="39" t="s">
         <v>190</v>
@@ -63414,7 +63501,7 @@
         <v>110</v>
       </c>
       <c r="F509" s="32" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="G509" s="30" t="s">
         <v>112</v>
@@ -63432,10 +63519,10 @@
         <v>113</v>
       </c>
       <c r="L509" s="38" t="s">
-        <v>1273</v>
+        <v>1523</v>
       </c>
       <c r="M509" s="39" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="N509" s="40" t="s">
         <v>115</v>
@@ -63542,7 +63629,7 @@
         <v>113</v>
       </c>
       <c r="L510" s="38" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="M510" s="39" t="s">
         <v>190</v>
@@ -63634,7 +63721,7 @@
         <v>110</v>
       </c>
       <c r="F511" s="32" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="G511" s="30" t="s">
         <v>112</v>
@@ -63652,10 +63739,10 @@
         <v>113</v>
       </c>
       <c r="L511" s="38" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="M511" s="39" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="N511" s="40" t="s">
         <v>115</v>
@@ -63762,10 +63849,10 @@
         <v>113</v>
       </c>
       <c r="L512" s="38" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="M512" s="39" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="N512" s="40" t="s">
         <v>115</v>
@@ -63854,7 +63941,7 @@
         <v>110</v>
       </c>
       <c r="F513" s="32" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="G513" s="30" t="s">
         <v>112</v>
@@ -63872,10 +63959,10 @@
         <v>113</v>
       </c>
       <c r="L513" s="38" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="M513" s="39" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="N513" s="40" t="s">
         <v>137</v>
@@ -63964,7 +64051,7 @@
         <v>110</v>
       </c>
       <c r="F514" s="32" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="G514" s="30" t="s">
         <v>112</v>
@@ -63982,10 +64069,10 @@
         <v>113</v>
       </c>
       <c r="L514" s="38" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="M514" s="39" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="N514" s="40" t="s">
         <v>115</v>
@@ -64074,7 +64161,7 @@
         <v>110</v>
       </c>
       <c r="F515" s="32" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="G515" s="30" t="s">
         <v>112</v>
@@ -64184,7 +64271,7 @@
         <v>110</v>
       </c>
       <c r="F516" s="32" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="G516" s="30" t="s">
         <v>112</v>
@@ -64205,7 +64292,7 @@
         <v>250</v>
       </c>
       <c r="M516" s="39" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="N516" s="40" t="s">
         <v>115</v>
@@ -64312,7 +64399,7 @@
         <v>113</v>
       </c>
       <c r="L517" s="38" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="M517" s="39" t="s">
         <v>464</v>
@@ -64404,7 +64491,7 @@
         <v>110</v>
       </c>
       <c r="F518" s="32" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="G518" s="30" t="s">
         <v>112</v>
@@ -64422,7 +64509,7 @@
         <v>113</v>
       </c>
       <c r="L518" s="38" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="M518" s="39" t="s">
         <v>190</v>
@@ -64514,7 +64601,7 @@
         <v>110</v>
       </c>
       <c r="F519" s="32" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="G519" s="30" t="s">
         <v>112</v>
@@ -64535,7 +64622,7 @@
         <v>576</v>
       </c>
       <c r="M519" s="39" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="N519" s="40" t="s">
         <v>115</v>
@@ -64624,7 +64711,7 @@
         <v>110</v>
       </c>
       <c r="F520" s="32" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="G520" s="30" t="s">
         <v>112</v>
@@ -64642,7 +64729,7 @@
         <v>113</v>
       </c>
       <c r="L520" s="38" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="M520" s="39" t="s">
         <v>190</v>
@@ -64752,10 +64839,10 @@
         <v>113</v>
       </c>
       <c r="L521" s="38" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="M521" s="39" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="N521" s="40" t="s">
         <v>115</v>
@@ -64843,8 +64930,8 @@
       <c r="E522" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F522" s="74" t="s">
-        <v>1507</v>
+      <c r="F522" s="50" t="s">
+        <v>1496</v>
       </c>
       <c r="G522" s="30" t="s">
         <v>112</v>
@@ -64862,10 +64949,10 @@
         <v>113</v>
       </c>
       <c r="L522" s="38" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="M522" s="39" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="N522" s="40" t="s">
         <v>115</v>
@@ -64953,8 +65040,8 @@
       <c r="E523" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F523" s="74" t="s">
-        <v>1508</v>
+      <c r="F523" s="50" t="s">
+        <v>1497</v>
       </c>
       <c r="G523" s="30" t="s">
         <v>112</v>
@@ -64972,7 +65059,7 @@
         <v>113</v>
       </c>
       <c r="L523" s="38" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M523" s="39" t="e">
         <v>#N/A</v>
@@ -65064,7 +65151,7 @@
         <v>110</v>
       </c>
       <c r="F524" s="32" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="G524" s="30" t="s">
         <v>112</v>
@@ -65082,7 +65169,7 @@
         <v>113</v>
       </c>
       <c r="L524" s="38" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="M524" s="39" t="s">
         <v>190</v>
@@ -65174,7 +65261,7 @@
         <v>110</v>
       </c>
       <c r="F525" s="32" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G525" s="30" t="s">
         <v>112</v>
@@ -65195,7 +65282,7 @@
         <v>271</v>
       </c>
       <c r="M525" s="39" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="N525" s="40" t="s">
         <v>115</v>
@@ -65283,8 +65370,8 @@
       <c r="E526" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F526" s="74" t="s">
-        <v>1509</v>
+      <c r="F526" s="50" t="s">
+        <v>1498</v>
       </c>
       <c r="G526" s="30" t="s">
         <v>112</v>
@@ -65302,7 +65389,7 @@
         <v>113</v>
       </c>
       <c r="L526" s="38" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="M526" s="39" t="s">
         <v>190</v>
@@ -65393,8 +65480,8 @@
       <c r="E527" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F527" s="74" t="s">
-        <v>1507</v>
+      <c r="F527" s="50" t="s">
+        <v>1496</v>
       </c>
       <c r="G527" s="30" t="s">
         <v>112</v>
@@ -65504,7 +65591,7 @@
         <v>110</v>
       </c>
       <c r="F528" s="32" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="G528" s="30" t="s">
         <v>112</v>
@@ -65522,7 +65609,7 @@
         <v>113</v>
       </c>
       <c r="L528" s="38" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="M528" s="39" t="s">
         <v>768</v>
@@ -65614,7 +65701,7 @@
         <v>110</v>
       </c>
       <c r="F529" s="32" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="G529" s="30" t="s">
         <v>112</v>
@@ -65635,7 +65722,7 @@
         <v>642</v>
       </c>
       <c r="M529" s="39" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="N529" s="40" t="s">
         <v>115</v>
@@ -65724,7 +65811,7 @@
         <v>110</v>
       </c>
       <c r="F530" s="32" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="G530" s="30" t="s">
         <v>112</v>
@@ -65742,10 +65829,10 @@
         <v>113</v>
       </c>
       <c r="L530" s="38" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="M530" s="39" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="N530" s="40" t="s">
         <v>115</v>
@@ -65834,7 +65921,7 @@
         <v>110</v>
       </c>
       <c r="F531" s="32" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="G531" s="30" t="s">
         <v>112</v>
@@ -65852,7 +65939,7 @@
         <v>113</v>
       </c>
       <c r="L531" s="38" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="M531" s="39" t="s">
         <v>190</v>
@@ -65944,7 +66031,7 @@
         <v>110</v>
       </c>
       <c r="F532" s="32" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="G532" s="30" t="s">
         <v>112</v>
@@ -65962,7 +66049,7 @@
         <v>113</v>
       </c>
       <c r="L532" s="38" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="M532" s="39" t="s">
         <v>190</v>
@@ -66054,7 +66141,7 @@
         <v>110</v>
       </c>
       <c r="F533" s="32" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="G533" s="30" t="s">
         <v>112</v>
@@ -66072,7 +66159,7 @@
         <v>113</v>
       </c>
       <c r="L533" s="38" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="M533" s="39" t="s">
         <v>190</v>
@@ -66164,7 +66251,7 @@
         <v>110</v>
       </c>
       <c r="F534" s="32" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="G534" s="30" t="s">
         <v>112</v>
@@ -66182,7 +66269,7 @@
         <v>113</v>
       </c>
       <c r="L534" s="38" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="M534" s="39" t="s">
         <v>190</v>
@@ -66274,7 +66361,7 @@
         <v>110</v>
       </c>
       <c r="F535" s="32" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G535" s="30" t="s">
         <v>112</v>
@@ -66292,7 +66379,7 @@
         <v>113</v>
       </c>
       <c r="L535" s="38" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="M535" s="39" t="s">
         <v>449</v>
@@ -66384,7 +66471,7 @@
         <v>110</v>
       </c>
       <c r="F536" s="32" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G536" s="30" t="s">
         <v>112</v>
@@ -66402,10 +66489,10 @@
         <v>113</v>
       </c>
       <c r="L536" s="38" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="M536" s="39" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="N536" s="40" t="s">
         <v>115</v>
@@ -66494,7 +66581,7 @@
         <v>110</v>
       </c>
       <c r="F537" s="32" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="G537" s="30" t="s">
         <v>112</v>
@@ -66512,7 +66599,7 @@
         <v>113</v>
       </c>
       <c r="L537" s="38" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="M537" s="39" t="s">
         <v>190</v>
@@ -66604,7 +66691,7 @@
         <v>110</v>
       </c>
       <c r="F538" s="32" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="G538" s="30" t="s">
         <v>112</v>
@@ -66622,7 +66709,7 @@
         <v>113</v>
       </c>
       <c r="L538" s="38" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="M538" s="39" t="s">
         <v>190</v>
@@ -66714,7 +66801,7 @@
         <v>110</v>
       </c>
       <c r="F539" s="32" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="G539" s="30" t="s">
         <v>112</v>
@@ -66732,10 +66819,10 @@
         <v>113</v>
       </c>
       <c r="L539" s="38" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="M539" s="39" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="N539" s="40" t="s">
         <v>115</v>
@@ -66824,7 +66911,7 @@
         <v>110</v>
       </c>
       <c r="F540" s="32" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="G540" s="30" t="s">
         <v>112</v>
@@ -66842,10 +66929,10 @@
         <v>113</v>
       </c>
       <c r="L540" s="38" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="M540" s="39" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="N540" s="40" t="s">
         <v>115</v>
@@ -66933,8 +67020,8 @@
       <c r="E541" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F541" s="74" t="s">
-        <v>1510</v>
+      <c r="F541" s="50" t="s">
+        <v>1499</v>
       </c>
       <c r="G541" s="30" t="s">
         <v>112</v>
@@ -66952,7 +67039,7 @@
         <v>113</v>
       </c>
       <c r="L541" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M541" s="39" t="e">
         <v>#N/A</v>
@@ -67044,7 +67131,7 @@
         <v>110</v>
       </c>
       <c r="F542" s="32" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="G542" s="30" t="s">
         <v>112</v>
@@ -67153,8 +67240,8 @@
       <c r="E543" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F543" s="74" t="s">
-        <v>1511</v>
+      <c r="F543" s="50" t="s">
+        <v>1500</v>
       </c>
       <c r="G543" s="30" t="s">
         <v>112</v>
@@ -67172,7 +67259,7 @@
         <v>113</v>
       </c>
       <c r="L543" s="38" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="M543" s="39" t="e">
         <v>#N/A</v>
@@ -67264,7 +67351,7 @@
         <v>110</v>
       </c>
       <c r="F544" s="32" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="G544" s="30" t="s">
         <v>112</v>
@@ -67282,10 +67369,10 @@
         <v>113</v>
       </c>
       <c r="L544" s="38" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="M544" s="39" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="N544" s="40" t="s">
         <v>115</v>
@@ -67374,7 +67461,7 @@
         <v>110</v>
       </c>
       <c r="F545" s="32" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="G545" s="30" t="s">
         <v>112</v>
@@ -67392,7 +67479,7 @@
         <v>113</v>
       </c>
       <c r="L545" s="38" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="M545" s="39" t="s">
         <v>190</v>
@@ -67484,7 +67571,7 @@
         <v>110</v>
       </c>
       <c r="F546" s="32" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="G546" s="30" t="s">
         <v>112</v>
@@ -67502,7 +67589,7 @@
         <v>113</v>
       </c>
       <c r="L546" s="38" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="M546" s="39" t="s">
         <v>449</v>
@@ -67594,7 +67681,7 @@
         <v>110</v>
       </c>
       <c r="F547" s="32" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G547" s="30" t="s">
         <v>112</v>
@@ -67612,7 +67699,7 @@
         <v>113</v>
       </c>
       <c r="L547" s="38" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="M547" s="39" t="s">
         <v>190</v>
@@ -67704,7 +67791,7 @@
         <v>110</v>
       </c>
       <c r="F548" s="32" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="G548" s="30" t="s">
         <v>112</v>
@@ -67722,7 +67809,7 @@
         <v>113</v>
       </c>
       <c r="L548" s="38" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="M548" s="39" t="s">
         <v>449</v>
@@ -67814,7 +67901,7 @@
         <v>110</v>
       </c>
       <c r="F549" s="32" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="G549" s="30" t="s">
         <v>112</v>
@@ -67832,10 +67919,10 @@
         <v>113</v>
       </c>
       <c r="L549" s="38" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="M549" s="39" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="N549" s="40" t="s">
         <v>115</v>
@@ -67924,7 +68011,7 @@
         <v>110</v>
       </c>
       <c r="F550" s="32" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
       <c r="G550" s="30" t="s">
         <v>112</v>
@@ -67942,7 +68029,7 @@
         <v>113</v>
       </c>
       <c r="L550" s="38" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="M550" s="39" t="s">
         <v>408</v>
@@ -68034,7 +68121,7 @@
         <v>110</v>
       </c>
       <c r="F551" s="32" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="G551" s="30" t="s">
         <v>112</v>
@@ -68052,7 +68139,7 @@
         <v>113</v>
       </c>
       <c r="L551" s="38" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="M551" s="39" t="s">
         <v>190</v>
@@ -68144,7 +68231,7 @@
         <v>110</v>
       </c>
       <c r="F552" s="32" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G552" s="30" t="s">
         <v>112</v>
@@ -68162,10 +68249,10 @@
         <v>113</v>
       </c>
       <c r="L552" s="38" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="M552" s="39" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="N552" s="40" t="s">
         <v>115</v>
@@ -68254,7 +68341,7 @@
         <v>110</v>
       </c>
       <c r="F553" s="32" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="G553" s="30" t="s">
         <v>112</v>
@@ -68272,7 +68359,7 @@
         <v>113</v>
       </c>
       <c r="L553" s="38" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="M553" s="39" t="s">
         <v>190</v>
@@ -68364,7 +68451,7 @@
         <v>110</v>
       </c>
       <c r="F554" s="32" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="G554" s="30" t="s">
         <v>112</v>
@@ -68382,7 +68469,7 @@
         <v>113</v>
       </c>
       <c r="L554" s="38" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="M554" s="39" t="s">
         <v>190</v>
@@ -68474,7 +68561,7 @@
         <v>110</v>
       </c>
       <c r="F555" s="32" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G555" s="30" t="s">
         <v>112</v>
@@ -68492,10 +68579,10 @@
         <v>113</v>
       </c>
       <c r="L555" s="38" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="M555" s="39" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N555" s="40" t="s">
         <v>115</v>
@@ -68584,7 +68671,7 @@
         <v>110</v>
       </c>
       <c r="F556" s="32" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="G556" s="30" t="s">
         <v>112</v>
@@ -68602,10 +68689,10 @@
         <v>113</v>
       </c>
       <c r="L556" s="38" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="M556" s="39" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="N556" s="40" t="s">
         <v>115</v>
@@ -68694,7 +68781,7 @@
         <v>110</v>
       </c>
       <c r="F557" s="32" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="G557" s="30" t="s">
         <v>112</v>
@@ -68712,7 +68799,7 @@
         <v>113</v>
       </c>
       <c r="L557" s="38" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M557" s="39" t="s">
         <v>449</v>
@@ -68804,7 +68891,7 @@
         <v>110</v>
       </c>
       <c r="F558" s="32" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="G558" s="30" t="s">
         <v>112</v>
@@ -68822,7 +68909,7 @@
         <v>113</v>
       </c>
       <c r="L558" s="38" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="M558" s="39" t="s">
         <v>190</v>
@@ -68914,7 +69001,7 @@
         <v>110</v>
       </c>
       <c r="F559" s="32" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="G559" s="30" t="s">
         <v>112</v>
@@ -68932,7 +69019,7 @@
         <v>113</v>
       </c>
       <c r="L559" s="38" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="M559" s="39" t="s">
         <v>190</v>
@@ -69024,7 +69111,7 @@
         <v>110</v>
       </c>
       <c r="F560" s="32" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="G560" s="30" t="s">
         <v>112</v>
@@ -69042,10 +69129,10 @@
         <v>113</v>
       </c>
       <c r="L560" s="38" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="M560" s="39" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="N560" s="40" t="s">
         <v>137</v>
@@ -69134,7 +69221,7 @@
         <v>110</v>
       </c>
       <c r="F561" s="32" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G561" s="30" t="s">
         <v>112</v>
@@ -69152,7 +69239,7 @@
         <v>113</v>
       </c>
       <c r="L561" s="38" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="M561" s="39" t="s">
         <v>190</v>
@@ -69244,7 +69331,7 @@
         <v>110</v>
       </c>
       <c r="F562" s="32" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="G562" s="30" t="s">
         <v>112</v>
@@ -69262,10 +69349,10 @@
         <v>113</v>
       </c>
       <c r="L562" s="38" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="M562" s="39" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="N562" s="40" t="s">
         <v>137</v>
@@ -69354,7 +69441,7 @@
         <v>110</v>
       </c>
       <c r="F563" s="32" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="G563" s="30" t="s">
         <v>112</v>
@@ -69372,7 +69459,7 @@
         <v>113</v>
       </c>
       <c r="L563" s="38" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="M563" s="39" t="s">
         <v>190</v>
@@ -69464,7 +69551,7 @@
         <v>110</v>
       </c>
       <c r="F564" s="32" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="G564" s="30" t="s">
         <v>112</v>
@@ -69482,7 +69569,7 @@
         <v>113</v>
       </c>
       <c r="L564" s="38" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="M564" s="39" t="s">
         <v>190</v>
@@ -69592,7 +69679,7 @@
         <v>113</v>
       </c>
       <c r="L565" s="38" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="M565" s="39" t="s">
         <v>190</v>
@@ -69684,7 +69771,7 @@
         <v>110</v>
       </c>
       <c r="F566" s="32" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="G566" s="30" t="s">
         <v>112</v>
@@ -69702,10 +69789,10 @@
         <v>113</v>
       </c>
       <c r="L566" s="38" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="M566" s="39" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="N566" s="40" t="s">
         <v>137</v>
@@ -69794,7 +69881,7 @@
         <v>110</v>
       </c>
       <c r="F567" s="32" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="G567" s="30" t="s">
         <v>112</v>
@@ -69812,10 +69899,10 @@
         <v>113</v>
       </c>
       <c r="L567" s="38" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="M567" s="39" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="N567" s="40" t="s">
         <v>137</v>
@@ -69904,7 +69991,7 @@
         <v>110</v>
       </c>
       <c r="F568" s="32" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="G568" s="30" t="s">
         <v>112</v>
@@ -69922,7 +70009,7 @@
         <v>113</v>
       </c>
       <c r="L568" s="38" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="M568" s="39" t="s">
         <v>190</v>
@@ -70014,7 +70101,7 @@
         <v>110</v>
       </c>
       <c r="F569" s="32" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="G569" s="30" t="s">
         <v>112</v>
@@ -70032,10 +70119,10 @@
         <v>113</v>
       </c>
       <c r="L569" s="38" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="M569" s="39" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="N569" s="40" t="s">
         <v>137</v>
@@ -70124,7 +70211,7 @@
         <v>110</v>
       </c>
       <c r="F570" s="32" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="G570" s="30" t="s">
         <v>112</v>
@@ -70142,7 +70229,7 @@
         <v>113</v>
       </c>
       <c r="L570" s="38" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="M570" s="39" t="s">
         <v>190</v>
@@ -70234,7 +70321,7 @@
         <v>110</v>
       </c>
       <c r="F571" s="32" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="G571" s="30" t="s">
         <v>112</v>
@@ -70252,7 +70339,7 @@
         <v>113</v>
       </c>
       <c r="L571" s="38" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="M571" s="39" t="s">
         <v>190</v>
@@ -70344,7 +70431,7 @@
         <v>110</v>
       </c>
       <c r="F572" s="32" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="G572" s="30" t="s">
         <v>112</v>
@@ -70362,7 +70449,7 @@
         <v>113</v>
       </c>
       <c r="L572" s="38" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="M572" s="39" t="s">
         <v>190</v>
@@ -70454,7 +70541,7 @@
         <v>110</v>
       </c>
       <c r="F573" s="32" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="G573" s="30" t="s">
         <v>112</v>
@@ -70472,10 +70559,10 @@
         <v>113</v>
       </c>
       <c r="L573" s="38" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="M573" s="39" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="N573" s="40" t="s">
         <v>137</v>
@@ -70582,7 +70669,7 @@
         <v>113</v>
       </c>
       <c r="L574" s="38" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="M574" s="39" t="s">
         <v>190</v>
@@ -70692,7 +70779,7 @@
         <v>113</v>
       </c>
       <c r="L575" s="38" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="M575" s="39" t="s">
         <v>190</v>
@@ -70784,7 +70871,7 @@
         <v>110</v>
       </c>
       <c r="F576" s="32" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="G576" s="30" t="s">
         <v>112</v>
@@ -70802,7 +70889,7 @@
         <v>113</v>
       </c>
       <c r="L576" s="38" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="M576" s="39" t="s">
         <v>190</v>
@@ -70912,10 +70999,10 @@
         <v>113</v>
       </c>
       <c r="L577" s="38" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="M577" s="39" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="N577" s="40" t="s">
         <v>115</v>
@@ -71004,7 +71091,7 @@
         <v>110</v>
       </c>
       <c r="F578" s="32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G578" s="30" t="s">
         <v>112</v>
@@ -71022,7 +71109,7 @@
         <v>113</v>
       </c>
       <c r="L578" s="38" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="M578" s="39" t="s">
         <v>190</v>
@@ -71132,10 +71219,10 @@
         <v>113</v>
       </c>
       <c r="L579" s="38" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="M579" s="39" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="N579" s="40" t="s">
         <v>115</v>
@@ -71223,8 +71310,8 @@
       <c r="E580" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F580" s="74" t="s">
-        <v>1512</v>
+      <c r="F580" s="50" t="s">
+        <v>1501</v>
       </c>
       <c r="G580" s="30" t="s">
         <v>112</v>
@@ -71242,7 +71329,7 @@
         <v>113</v>
       </c>
       <c r="L580" s="38" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="M580" s="39" t="e">
         <v>#N/A</v>
@@ -71334,7 +71421,7 @@
         <v>110</v>
       </c>
       <c r="F581" s="32" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G581" s="30" t="s">
         <v>112</v>
@@ -71352,10 +71439,10 @@
         <v>113</v>
       </c>
       <c r="L581" s="38" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="M581" s="39" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="N581" s="40" t="s">
         <v>137</v>
@@ -71444,7 +71531,7 @@
         <v>110</v>
       </c>
       <c r="F582" s="32" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G582" s="30" t="s">
         <v>112</v>
@@ -71462,7 +71549,7 @@
         <v>113</v>
       </c>
       <c r="L582" s="38" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="M582" s="39" t="s">
         <v>190</v>
@@ -71572,7 +71659,7 @@
         <v>113</v>
       </c>
       <c r="L583" s="38" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="M583" s="39" t="s">
         <v>190</v>
@@ -71682,7 +71769,7 @@
         <v>113</v>
       </c>
       <c r="L584" s="38" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="M584" s="39" t="s">
         <v>190</v>
@@ -71774,7 +71861,7 @@
         <v>110</v>
       </c>
       <c r="F585" s="32" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G585" s="30" t="s">
         <v>112</v>
@@ -71792,10 +71879,10 @@
         <v>113</v>
       </c>
       <c r="L585" s="38" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="M585" s="39" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="N585" s="40" t="s">
         <v>137</v>
@@ -71884,7 +71971,7 @@
         <v>110</v>
       </c>
       <c r="F586" s="32" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G586" s="30" t="s">
         <v>112</v>
@@ -71902,7 +71989,7 @@
         <v>113</v>
       </c>
       <c r="L586" s="38" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="M586" s="39" t="s">
         <v>190</v>
@@ -72012,7 +72099,7 @@
         <v>113</v>
       </c>
       <c r="L587" s="38" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="M587" s="39" t="s">
         <v>190</v>
@@ -72122,7 +72209,7 @@
         <v>113</v>
       </c>
       <c r="L588" s="38" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="M588" s="39" t="s">
         <v>190</v>
@@ -72214,7 +72301,7 @@
         <v>110</v>
       </c>
       <c r="F589" s="32" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="G589" s="30" t="s">
         <v>112</v>
@@ -72232,10 +72319,10 @@
         <v>113</v>
       </c>
       <c r="L589" s="38" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="M589" s="39" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="N589" s="40" t="s">
         <v>137</v>
@@ -72342,7 +72429,7 @@
         <v>113</v>
       </c>
       <c r="L590" s="38" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="M590" s="39" t="s">
         <v>307</v>
@@ -72452,10 +72539,10 @@
         <v>113</v>
       </c>
       <c r="L591" s="38" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="M591" s="39" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="N591" s="40" t="s">
         <v>137</v>
@@ -72544,7 +72631,7 @@
         <v>110</v>
       </c>
       <c r="F592" s="32" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G592" s="30" t="s">
         <v>112</v>
@@ -72562,10 +72649,10 @@
         <v>113</v>
       </c>
       <c r="L592" s="38" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="M592" s="39" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="N592" s="40" t="s">
         <v>137</v>
@@ -72672,10 +72759,10 @@
         <v>113</v>
       </c>
       <c r="L593" s="38" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="M593" s="39" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="N593" s="40" t="s">
         <v>137</v>
@@ -72782,10 +72869,10 @@
         <v>113</v>
       </c>
       <c r="L594" s="38" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="M594" s="39" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="N594" s="40" t="s">
         <v>137</v>
@@ -72895,7 +72982,7 @@
         <v>518</v>
       </c>
       <c r="M595" s="39" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="N595" s="40" t="s">
         <v>137</v>
@@ -72984,7 +73071,7 @@
         <v>110</v>
       </c>
       <c r="F596" s="32" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="G596" s="30" t="s">
         <v>112</v>
@@ -73002,10 +73089,10 @@
         <v>113</v>
       </c>
       <c r="L596" s="38" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="M596" s="39" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="N596" s="40" t="s">
         <v>137</v>
@@ -73094,7 +73181,7 @@
         <v>110</v>
       </c>
       <c r="F597" s="32" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G597" s="30" t="s">
         <v>112</v>
@@ -73112,10 +73199,10 @@
         <v>113</v>
       </c>
       <c r="L597" s="38" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="M597" s="39" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="N597" s="40" t="s">
         <v>137</v>
@@ -73222,7 +73309,7 @@
         <v>113</v>
       </c>
       <c r="L598" s="38" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="M598" s="39" t="s">
         <v>349</v>
@@ -73332,7 +73419,7 @@
         <v>113</v>
       </c>
       <c r="L599" s="38" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="M599" s="39" t="s">
         <v>190</v>
@@ -73442,7 +73529,7 @@
         <v>113</v>
       </c>
       <c r="L600" s="38" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="M600" s="39" t="s">
         <v>301</v>
@@ -73555,7 +73642,7 @@
         <v>335</v>
       </c>
       <c r="M601" s="39" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="N601" s="40" t="s">
         <v>137</v>
@@ -73662,10 +73749,10 @@
         <v>113</v>
       </c>
       <c r="L602" s="38" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="M602" s="39" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="N602" s="40" t="s">
         <v>137</v>
@@ -73772,7 +73859,7 @@
         <v>113</v>
       </c>
       <c r="L603" s="38" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="M603" s="39" t="s">
         <v>377</v>
@@ -73864,7 +73951,7 @@
         <v>110</v>
       </c>
       <c r="F604" s="32" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G604" s="30" t="s">
         <v>112</v>
@@ -73882,10 +73969,10 @@
         <v>113</v>
       </c>
       <c r="L604" s="38" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="M604" s="39" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="N604" s="40" t="s">
         <v>137</v>
@@ -73974,7 +74061,7 @@
         <v>110</v>
       </c>
       <c r="F605" s="32" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="G605" s="30" t="s">
         <v>112</v>
@@ -73992,10 +74079,10 @@
         <v>113</v>
       </c>
       <c r="L605" s="38" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="M605" s="39" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="N605" s="40" t="s">
         <v>137</v>
@@ -74102,7 +74189,7 @@
         <v>113</v>
       </c>
       <c r="L606" s="38" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="M606" s="39" t="s">
         <v>701</v>
@@ -74194,7 +74281,7 @@
         <v>110</v>
       </c>
       <c r="F607" s="32" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="G607" s="30" t="s">
         <v>112</v>
@@ -74212,10 +74299,10 @@
         <v>113</v>
       </c>
       <c r="L607" s="38" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="M607" s="39" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="N607" s="40" t="s">
         <v>137</v>
@@ -74304,7 +74391,7 @@
         <v>110</v>
       </c>
       <c r="F608" s="32" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G608" s="30" t="s">
         <v>112</v>
@@ -74322,10 +74409,10 @@
         <v>113</v>
       </c>
       <c r="L608" s="38" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="M608" s="39" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="N608" s="40" t="s">
         <v>137</v>
@@ -74432,10 +74519,10 @@
         <v>113</v>
       </c>
       <c r="L609" s="38" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="M609" s="39" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="N609" s="40" t="s">
         <v>137</v>
@@ -74524,7 +74611,7 @@
         <v>110</v>
       </c>
       <c r="F610" s="32" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="G610" s="30" t="s">
         <v>112</v>
@@ -74542,10 +74629,10 @@
         <v>113</v>
       </c>
       <c r="L610" s="38" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="M610" s="39" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="N610" s="40" t="s">
         <v>137</v>
@@ -74652,10 +74739,10 @@
         <v>113</v>
       </c>
       <c r="L611" s="38" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="M611" s="39" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="N611" s="40" t="s">
         <v>137</v>
@@ -74744,7 +74831,7 @@
         <v>110</v>
       </c>
       <c r="F612" s="32" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="G612" s="30" t="s">
         <v>112</v>
@@ -74762,10 +74849,10 @@
         <v>113</v>
       </c>
       <c r="L612" s="38" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="M612" s="39" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="N612" s="40" t="s">
         <v>137</v>
@@ -74872,7 +74959,7 @@
         <v>113</v>
       </c>
       <c r="L613" s="38" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="M613" s="39" t="s">
         <v>623</v>
@@ -74964,7 +75051,7 @@
         <v>110</v>
       </c>
       <c r="F614" s="32" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="G614" s="30" t="s">
         <v>112</v>
@@ -75074,7 +75161,7 @@
         <v>110</v>
       </c>
       <c r="F615" s="32" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G615" s="30" t="s">
         <v>112</v>
@@ -75184,7 +75271,7 @@
         <v>110</v>
       </c>
       <c r="F616" s="32" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="G616" s="30" t="s">
         <v>112</v>
@@ -75202,7 +75289,7 @@
         <v>113</v>
       </c>
       <c r="L616" s="38" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="M616" s="39" t="s">
         <v>361</v>
@@ -75312,10 +75399,10 @@
         <v>113</v>
       </c>
       <c r="L617" s="38" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="M617" s="39" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="N617" s="40" t="s">
         <v>137</v>
@@ -75404,7 +75491,7 @@
         <v>110</v>
       </c>
       <c r="F618" s="32" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="G618" s="30" t="s">
         <v>112</v>
@@ -75422,10 +75509,10 @@
         <v>113</v>
       </c>
       <c r="L618" s="38" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="M618" s="39" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N618" s="40" t="s">
         <v>137</v>
@@ -75514,7 +75601,7 @@
         <v>110</v>
       </c>
       <c r="F619" s="32" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="G619" s="30" t="s">
         <v>112</v>
@@ -75532,10 +75619,10 @@
         <v>113</v>
       </c>
       <c r="L619" s="38" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="M619" s="39" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="N619" s="40" t="s">
         <v>137</v>
@@ -75624,7 +75711,7 @@
         <v>110</v>
       </c>
       <c r="F620" s="32" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="G620" s="30" t="s">
         <v>112</v>
@@ -75642,10 +75729,10 @@
         <v>113</v>
       </c>
       <c r="L620" s="38" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="M620" s="39" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="N620" s="40" t="s">
         <v>137</v>
@@ -75734,7 +75821,7 @@
         <v>110</v>
       </c>
       <c r="F621" s="32" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
       <c r="G621" s="30" t="s">
         <v>112</v>
@@ -75752,10 +75839,10 @@
         <v>113</v>
       </c>
       <c r="L621" s="38" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="M621" s="39" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="N621" s="40" t="s">
         <v>137</v>
@@ -75844,7 +75931,7 @@
         <v>110</v>
       </c>
       <c r="F622" s="32" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="G622" s="30" t="s">
         <v>112</v>
@@ -75862,7 +75949,7 @@
         <v>113</v>
       </c>
       <c r="L622" s="38" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="M622" s="39" t="s">
         <v>190</v>
@@ -75954,7 +76041,7 @@
         <v>110</v>
       </c>
       <c r="F623" s="32" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="G623" s="30" t="s">
         <v>112</v>
@@ -75972,10 +76059,10 @@
         <v>113</v>
       </c>
       <c r="L623" s="38" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="M623" s="39" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="N623" s="40" t="s">
         <v>137</v>
@@ -76064,7 +76151,7 @@
         <v>110</v>
       </c>
       <c r="F624" s="32" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="G624" s="30" t="s">
         <v>112</v>
@@ -76082,10 +76169,10 @@
         <v>113</v>
       </c>
       <c r="L624" s="38" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
       <c r="M624" s="39" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
       <c r="N624" s="40" t="s">
         <v>137</v>
@@ -76174,7 +76261,7 @@
         <v>110</v>
       </c>
       <c r="F625" s="32" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
       <c r="G625" s="30" t="s">
         <v>112</v>
@@ -76192,10 +76279,10 @@
         <v>113</v>
       </c>
       <c r="L625" s="38" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="M625" s="39" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="N625" s="40" t="s">
         <v>137</v>
@@ -76284,7 +76371,7 @@
         <v>110</v>
       </c>
       <c r="F626" s="32" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="G626" s="30" t="s">
         <v>112</v>
@@ -76302,10 +76389,10 @@
         <v>113</v>
       </c>
       <c r="L626" s="38" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="M626" s="39" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="N626" s="40" t="s">
         <v>137</v>
@@ -76394,7 +76481,7 @@
         <v>110</v>
       </c>
       <c r="F627" s="32" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="G627" s="30" t="s">
         <v>112</v>
@@ -76412,10 +76499,10 @@
         <v>113</v>
       </c>
       <c r="L627" s="38" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="M627" s="39" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="N627" s="40" t="s">
         <v>137</v>
@@ -76504,7 +76591,7 @@
         <v>110</v>
       </c>
       <c r="F628" s="32" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="G628" s="30" t="s">
         <v>112</v>
@@ -76522,10 +76609,10 @@
         <v>113</v>
       </c>
       <c r="L628" s="38" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="M628" s="39" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="N628" s="40" t="s">
         <v>137</v>
@@ -76614,7 +76701,7 @@
         <v>110</v>
       </c>
       <c r="F629" s="32" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="G629" s="30" t="s">
         <v>112</v>
@@ -76632,10 +76719,10 @@
         <v>113</v>
       </c>
       <c r="L629" s="38" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="M629" s="39" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="N629" s="40" t="s">
         <v>137</v>
@@ -76724,7 +76811,7 @@
         <v>110</v>
       </c>
       <c r="F630" s="32" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="G630" s="30" t="s">
         <v>112</v>
@@ -76742,10 +76829,10 @@
         <v>113</v>
       </c>
       <c r="L630" s="38" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="M630" s="39" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="N630" s="40" t="s">
         <v>137</v>
@@ -76834,7 +76921,7 @@
         <v>110</v>
       </c>
       <c r="F631" s="32" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="G631" s="30" t="s">
         <v>112</v>
@@ -76933,56 +77020,6 @@
   </sheetData>
   <autoFilter ref="A5:CH631" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="66">
-    <mergeCell ref="BV10:BV11"/>
-    <mergeCell ref="CE10:CE11"/>
-    <mergeCell ref="CG10:CG11"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="BF9:CG9"/>
-    <mergeCell ref="BG10:BI10"/>
-    <mergeCell ref="BL10:BM10"/>
-    <mergeCell ref="BW10:BY10"/>
-    <mergeCell ref="BZ10:CB10"/>
-    <mergeCell ref="CC10:CD10"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BP10:BP11"/>
-    <mergeCell ref="BQ10:BQ11"/>
-    <mergeCell ref="BR10:BR11"/>
-    <mergeCell ref="BS10:BS11"/>
-    <mergeCell ref="BT10:BT11"/>
-    <mergeCell ref="BU10:BU11"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="A1:BB1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:BB3"/>
@@ -76999,6 +77036,56 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="BS10:BS11"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BU10:BU11"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BP10:BP11"/>
+    <mergeCell ref="BQ10:BQ11"/>
+    <mergeCell ref="BR10:BR11"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="BV10:BV11"/>
+    <mergeCell ref="CE10:CE11"/>
+    <mergeCell ref="CG10:CG11"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BF9:CG9"/>
+    <mergeCell ref="BG10:BI10"/>
+    <mergeCell ref="BL10:BM10"/>
+    <mergeCell ref="BW10:BY10"/>
+    <mergeCell ref="BZ10:CB10"/>
+    <mergeCell ref="CC10:CD10"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BK10:BK11"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="21">
@@ -77067,6 +77154,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -77085,7 +77173,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.649999999999999">
       <c r="A1" s="19" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -77099,7 +77187,7 @@
     </row>
     <row r="3" spans="1:4" ht="35.25">
       <c r="A3" s="19" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -77107,7 +77195,7 @@
     </row>
     <row r="4" spans="1:4" ht="35.25">
       <c r="A4" s="19" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -77115,7 +77203,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.649999999999999">
       <c r="A5" s="19" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -77123,7 +77211,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.649999999999999">
       <c r="A6" s="19" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -77131,7 +77219,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.649999999999999">
       <c r="A7" s="19" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -77139,7 +77227,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.649999999999999">
       <c r="A8" s="19" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -77147,7 +77235,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.649999999999999">
       <c r="A9" s="19" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -77161,7 +77249,7 @@
     </row>
     <row r="11" spans="1:4" ht="17.649999999999999">
       <c r="A11" s="20" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -77217,109 +77305,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
     </row>
     <row r="2" spans="1:28" ht="40.5">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="66" t="s">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="51" t="s">
         <v>42</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="25.5">
-      <c r="A3" s="66"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -77329,23 +77417,23 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="2">
         <v>1</v>
       </c>
@@ -77370,11 +77458,11 @@
       <c r="Y3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="66"/>
+      <c r="Z3" s="51"/>
       <c r="AA3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="66"/>
+      <c r="AB3" s="51"/>
     </row>
     <row r="4" spans="1:28" ht="141.75">
       <c r="A4" s="5" t="s">
@@ -78757,6 +78845,9 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="Z2:Z3"/>
@@ -78774,9 +78865,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
